--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_5_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_5_25.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1596844.415354548</v>
+        <v>1672374.085019354</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.83780062</v>
+        <v>2264668.837800626</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.51166597</v>
+        <v>1169509.511665969</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -665,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -674,7 +676,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>119.0738108413406</v>
+        <v>221.545583493672</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -704,16 +706,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -722,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -814,19 +816,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -838,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -868,7 +870,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>194.7047996847259</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -883,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>59.72683757586846</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>92.49556798565702</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>190.9657746120877</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,13 +943,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -956,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -990,10 +992,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H6" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1051,19 +1053,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>58.67448574982311</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1072,10 +1074,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1120,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>140.1997601007686</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1136,22 +1138,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>216.3760841877211</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>53.74271756081269</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,28 +1180,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481175</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I9" t="n">
-        <v>61.4222199825082</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229334</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1291,10 +1293,10 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1303,7 +1305,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1345,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>184.2720459863179</v>
+        <v>234.4970761400738</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1388,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1430,7 +1432,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174118</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1528,7 +1530,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1543,7 +1545,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>87.19731670114088</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -1573,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
@@ -1588,7 +1590,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>209.4552226741776</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1610,7 +1612,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206818</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1765,25 +1767,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>113.3778863913858</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>145.4322165318416</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1819,13 +1821,13 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1895,7 +1897,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
-        <v>208.4827883385011</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
         <v>251.078595249801</v>
@@ -1999,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>57.64843562452408</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2056,19 +2058,19 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>67.90088782653663</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2476,19 +2478,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>54.9176196541345</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2521,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2539,7 +2541,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>129.4106056624395</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2567,13 +2569,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896914</v>
       </c>
       <c r="H26" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113176</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274054</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051987</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2618,7 +2620,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784757</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2649,10 +2651,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H27" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262918</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014433</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2682,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T27" t="n">
         <v>192.9654699154601</v>
@@ -2713,7 +2715,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2728,7 +2730,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2761,13 +2763,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>190.7955476484028</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2779,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>181.5360939493101</v>
       </c>
     </row>
     <row r="29">
@@ -2801,16 +2803,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417103</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896914</v>
       </c>
       <c r="H29" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113176</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274054</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051987</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2886,10 +2888,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H30" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262918</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014433</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2919,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T30" t="n">
         <v>192.9654699154601</v>
@@ -2956,19 +2958,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3001,22 +3003,22 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>214.0236273888491</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>155.8385935972331</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3089,7 +3091,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3187,22 +3189,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3241,16 +3243,16 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>225.1809026611657</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>66.14085215535403</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3269,7 +3271,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206827</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3430,19 +3432,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>106.2810332792928</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,16 +3474,16 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3557,7 +3559,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3658,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3673,13 +3675,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>54.61509944719197</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,22 +3711,22 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>118.4898845065119</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3788,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T41" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U41" t="n">
         <v>251.078595249801</v>
@@ -3904,16 +3906,16 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>33.32815808118166</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>211.7934174672718</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3989,13 +3991,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896914</v>
       </c>
       <c r="H44" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113176</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274051</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051987</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4071,10 +4073,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H45" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262918</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014432</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4104,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T45" t="n">
         <v>192.9654699154601</v>
@@ -4183,10 +4185,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>115.5269768002178</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>118.4898845065146</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
@@ -4201,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1525.597764264522</v>
+        <v>2014.892857925727</v>
       </c>
       <c r="C2" t="n">
-        <v>1156.63524732411</v>
+        <v>1645.930340985316</v>
       </c>
       <c r="D2" t="n">
-        <v>1156.63524732411</v>
+        <v>1645.930340985316</v>
       </c>
       <c r="E2" t="n">
-        <v>1156.63524732411</v>
+        <v>1260.142088387071</v>
       </c>
       <c r="F2" t="n">
-        <v>745.6493425345027</v>
+        <v>849.1561835974637</v>
       </c>
       <c r="G2" t="n">
-        <v>327.6855344326896</v>
+        <v>431.1923754956506</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4328,10 +4330,10 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
         <v>881.2824271224076</v>
@@ -4352,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2302.336936304455</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U2" t="n">
-        <v>2302.336936304455</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V2" t="n">
-        <v>2302.336936304455</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="W2" t="n">
-        <v>2302.336936304455</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="X2" t="n">
-        <v>2302.336936304455</v>
+        <v>2014.892857925727</v>
       </c>
       <c r="Y2" t="n">
-        <v>1912.197604328644</v>
+        <v>2014.892857925727</v>
       </c>
     </row>
     <row r="3">
@@ -4398,31 +4400,31 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4431,7 +4433,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4462,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>667.7988452409105</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="C4" t="n">
-        <v>498.8626623130036</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="D4" t="n">
-        <v>348.7460229006679</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="E4" t="n">
-        <v>200.8329293182748</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>502.0405502269999</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>502.0405502269999</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>502.0405502269999</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>502.0405502269999</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>502.0405502269999</v>
       </c>
       <c r="Y4" t="n">
-        <v>667.7988452409105</v>
+        <v>281.2479710834698</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1194.175505447095</v>
+        <v>1873.842488573869</v>
       </c>
       <c r="C5" t="n">
-        <v>825.2129885066831</v>
+        <v>1780.41262192169</v>
       </c>
       <c r="D5" t="n">
-        <v>825.2129885066831</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E5" t="n">
-        <v>825.2129885066831</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F5" t="n">
-        <v>414.2270837170756</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
-        <v>400.3036796556665</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4583,34 +4585,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="V5" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="W5" t="n">
-        <v>2344.380435748108</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="X5" t="n">
-        <v>1970.914677487028</v>
+        <v>1873.842488573869</v>
       </c>
       <c r="Y5" t="n">
-        <v>1580.775345511217</v>
+        <v>1873.842488573869</v>
       </c>
     </row>
     <row r="6">
@@ -4635,34 +4637,34 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615929</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572649</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>404.8646000824888</v>
+        <v>477.9194859165264</v>
       </c>
       <c r="C7" t="n">
-        <v>235.9284171545819</v>
+        <v>308.9833029886195</v>
       </c>
       <c r="D7" t="n">
-        <v>235.9284171545819</v>
+        <v>158.8666635762837</v>
       </c>
       <c r="E7" t="n">
-        <v>235.9284171545819</v>
+        <v>158.8666635762837</v>
       </c>
       <c r="F7" t="n">
-        <v>235.9284171545819</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="G7" t="n">
-        <v>235.9284171545819</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="H7" t="n">
-        <v>235.9284171545819</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="Y7" t="n">
-        <v>586.5130649127285</v>
+        <v>477.9194859165264</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1358.14085447938</v>
+        <v>1487.242648509748</v>
       </c>
       <c r="C8" t="n">
-        <v>1358.14085447938</v>
+        <v>1487.242648509748</v>
       </c>
       <c r="D8" t="n">
-        <v>999.8751558726296</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E8" t="n">
-        <v>999.8751558726296</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F8" t="n">
-        <v>588.8892510830221</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036442</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642688</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791251</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018221</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548714</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862884</v>
+        <v>2465.942913862887</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862884</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U8" t="n">
-        <v>2465.942913862884</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="V8" t="n">
-        <v>2134.880026519314</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="W8" t="n">
-        <v>2134.880026519314</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="X8" t="n">
-        <v>2134.880026519314</v>
+        <v>1873.84248857387</v>
       </c>
       <c r="Y8" t="n">
-        <v>1744.740694543502</v>
+        <v>1873.84248857387</v>
       </c>
     </row>
     <row r="9">
@@ -4878,22 +4880,22 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036442</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204942</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615927</v>
+        <v>384.4474646615929</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572644</v>
+        <v>789.0633827572649</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315295</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414846</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>541.9956044222746</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="C10" t="n">
-        <v>373.0594214943677</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="D10" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="E10" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="F10" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036442</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036442</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036442</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036442</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866325</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477909</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658208</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502498</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.26178935949</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064341</v>
+        <v>579.9823256406186</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064341</v>
+        <v>579.9823256406186</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064341</v>
+        <v>579.9823256406186</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064341</v>
+        <v>290.8087152951865</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064341</v>
+        <v>290.8087152951865</v>
       </c>
       <c r="W10" t="n">
-        <v>541.9956044222746</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="X10" t="n">
-        <v>541.9956044222746</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="Y10" t="n">
-        <v>541.9956044222746</v>
+        <v>53.94298182036447</v>
       </c>
     </row>
     <row r="11">
@@ -5015,34 +5017,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5057,34 +5059,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5106,16 +5108,16 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G12" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H12" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
         <v>138.7081686256434</v>
@@ -5173,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>465.7659634441654</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="C13" t="n">
-        <v>296.8297805162584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="D13" t="n">
-        <v>296.8297805162584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E13" t="n">
-        <v>296.8297805162584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F13" t="n">
-        <v>296.8297805162584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G13" t="n">
-        <v>296.8297805162584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H13" t="n">
         <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5221,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1298.996260473455</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U13" t="n">
-        <v>1009.867621687013</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V13" t="n">
-        <v>755.183133481126</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="W13" t="n">
-        <v>465.7659634441654</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="X13" t="n">
-        <v>465.7659634441654</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="Y13" t="n">
-        <v>465.7659634441654</v>
+        <v>208.7516828383384</v>
       </c>
     </row>
     <row r="14">
@@ -5252,10 +5254,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
         <v>1701.093169003441</v>
@@ -5273,16 +5275,16 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
@@ -5300,28 +5302,28 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5343,37 +5345,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F15" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G15" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H15" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L15" t="n">
-        <v>901.674922584592</v>
+        <v>1026.505047571597</v>
       </c>
       <c r="M15" t="n">
-        <v>1332.091733170013</v>
+        <v>1333.825180851558</v>
       </c>
       <c r="N15" t="n">
-        <v>1661.954360834046</v>
+        <v>1663.687808515591</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>1943.227873734288</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2463.528495470035</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>675.007103038344</v>
+        <v>674.7185717878251</v>
       </c>
       <c r="C16" t="n">
-        <v>506.0709201104371</v>
+        <v>674.7185717878251</v>
       </c>
       <c r="D16" t="n">
-        <v>506.0709201104371</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E16" t="n">
-        <v>506.0709201104371</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F16" t="n">
-        <v>506.0709201104371</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G16" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5467,19 +5469,19 @@
         <v>964.1357418247858</v>
       </c>
       <c r="U16" t="n">
-        <v>675.007103038344</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="V16" t="n">
-        <v>675.007103038344</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="W16" t="n">
-        <v>675.007103038344</v>
+        <v>674.7185717878251</v>
       </c>
       <c r="X16" t="n">
-        <v>675.007103038344</v>
+        <v>674.7185717878251</v>
       </c>
       <c r="Y16" t="n">
-        <v>675.007103038344</v>
+        <v>674.7185717878251</v>
       </c>
     </row>
     <row r="17">
@@ -5489,40 +5491,40 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
         <v>365.8813331823786</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
         <v>3183.709822619127</v>
@@ -5537,28 +5539,28 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
         <v>4726.561275231263</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3224.712326690732</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C18" t="n">
-        <v>3050.259297409605</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D18" t="n">
-        <v>2901.324887748354</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E18" t="n">
-        <v>2742.087432742898</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>2595.552874769783</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G18" t="n">
-        <v>2458.626196373968</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>2362.681322805656</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>2334.49815909844</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>2500.819361250802</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>2911.709630095315</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L18" t="n">
-        <v>3443.999848753676</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M18" t="n">
-        <v>3751.319982033638</v>
+        <v>966.6932390011336</v>
       </c>
       <c r="N18" t="n">
-        <v>4081.18260969767</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O18" t="n">
-        <v>4360.722674916367</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P18" t="n">
-        <v>4565.745155698577</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
-        <v>4860.854573014291</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R18" t="n">
-        <v>4860.854573014291</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S18" t="n">
-        <v>4720.948468098066</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T18" t="n">
-        <v>4526.033852021844</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U18" t="n">
-        <v>4297.928927641231</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V18" t="n">
-        <v>4062.776819409488</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W18" t="n">
-        <v>3808.539462681287</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X18" t="n">
-        <v>3600.687962475754</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y18" t="n">
-        <v>3392.9276637108</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="19">
@@ -5647,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>324.3840174432676</v>
+        <v>1141.200876391121</v>
       </c>
       <c r="C19" t="n">
-        <v>155.4478345153607</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="D19" t="n">
-        <v>155.4478345153607</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="E19" t="n">
-        <v>155.4478345153607</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F19" t="n">
-        <v>155.4478345153607</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G19" t="n">
-        <v>155.4478345153607</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028583</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5704,19 +5706,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="U19" t="n">
-        <v>1498.916270557902</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V19" t="n">
-        <v>1244.231782352015</v>
+        <v>1141.200876391121</v>
       </c>
       <c r="W19" t="n">
-        <v>954.8146123150548</v>
+        <v>1141.200876391121</v>
       </c>
       <c r="X19" t="n">
-        <v>726.8250614170374</v>
+        <v>1141.200876391121</v>
       </c>
       <c r="Y19" t="n">
-        <v>506.0324822735073</v>
+        <v>1141.200876391121</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5731,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
         <v>1701.09316900344</v>
@@ -5738,31 +5740,31 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823786</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5783,16 +5785,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
         <v>2814.921224614724</v>
@@ -5832,16 +5834,16 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L21" t="n">
-        <v>1206.718781115524</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M21" t="n">
-        <v>1514.038914395485</v>
+        <v>966.6932390011336</v>
       </c>
       <c r="N21" t="n">
-        <v>1843.901542059518</v>
+        <v>1771.104817265284</v>
       </c>
       <c r="O21" t="n">
         <v>2123.441607278215</v>
@@ -5966,49 +5968,49 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155887</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014292</v>
@@ -6020,16 +6022,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
         <v>2814.921224614724</v>
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C24" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D24" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E24" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>2375.989236263798</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K24" t="n">
-        <v>2525.058920465858</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L24" t="n">
-        <v>3138.955990222747</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M24" t="n">
-        <v>3907.324136615208</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N24" t="n">
-        <v>4237.18676427924</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O24" t="n">
-        <v>4568.699189774859</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P24" t="n">
-        <v>4773.721670557069</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q24" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S24" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T24" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U24" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V24" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W24" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X24" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y24" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="25">
@@ -6121,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>302.8060739576059</v>
+        <v>711.072954880832</v>
       </c>
       <c r="C25" t="n">
-        <v>302.8060739576059</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D25" t="n">
-        <v>152.6894345452702</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E25" t="n">
-        <v>152.6894345452702</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F25" t="n">
-        <v>152.6894345452702</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
         <v>97.21709146028584</v>
@@ -6169,28 +6171,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U25" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V25" t="n">
-        <v>933.2366688293931</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W25" t="n">
-        <v>933.2366688293931</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="X25" t="n">
-        <v>705.2471179313758</v>
+        <v>1113.513998854602</v>
       </c>
       <c r="Y25" t="n">
-        <v>484.4545387878456</v>
+        <v>892.7214197110717</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.217091460286</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823799</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514102</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795209</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515101</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619132</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643329</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899133</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207836</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.8545730143</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231271</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141875</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465308</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121738</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851623</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6300,31 +6302,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.217091460286</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126487</v>
       </c>
       <c r="K27" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571619</v>
       </c>
       <c r="L27" t="n">
-        <v>563.7235867775518</v>
+        <v>921.1936903636266</v>
       </c>
       <c r="M27" t="n">
-        <v>1332.091733170013</v>
+        <v>1228.513823643589</v>
       </c>
       <c r="N27" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.376451307622</v>
       </c>
       <c r="O27" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.91651652632</v>
       </c>
       <c r="P27" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028584</v>
+        <v>416.5712828402496</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123427</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123427</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123427</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123427</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123427</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.217091460286</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.217091460286</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241961</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688078</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799374</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471205</v>
       </c>
       <c r="N28" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974669</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980066</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585749</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557905</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557905</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473457</v>
       </c>
       <c r="T28" t="n">
-        <v>1306.193495155475</v>
+        <v>1298.996260473457</v>
       </c>
       <c r="U28" t="n">
-        <v>1017.064856369034</v>
+        <v>1298.996260473457</v>
       </c>
       <c r="V28" t="n">
-        <v>1017.064856369034</v>
+        <v>1298.996260473457</v>
       </c>
       <c r="W28" t="n">
-        <v>727.647686332073</v>
+        <v>1009.579090436497</v>
       </c>
       <c r="X28" t="n">
-        <v>499.6581354340557</v>
+        <v>781.5895395384794</v>
       </c>
       <c r="Y28" t="n">
-        <v>278.8655562905255</v>
+        <v>598.2197476704894</v>
       </c>
     </row>
     <row r="29">
@@ -6443,55 +6445,55 @@
         <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155885</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822461</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823792</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514096</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795209</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.1647015151</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619132</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643329</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899133</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207836</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231263</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
         <v>4262.3578574653</v>
@@ -6525,40 +6527,40 @@
         <v>664.0438201101999</v>
       </c>
       <c r="E30" t="n">
-        <v>504.8063651047445</v>
+        <v>504.8063651047444</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316293</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358146</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675023</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126485</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571617</v>
       </c>
       <c r="L30" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636264</v>
       </c>
       <c r="M30" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643589</v>
       </c>
       <c r="N30" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307622</v>
       </c>
       <c r="O30" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.91651652632</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>846.3978353108171</v>
+        <v>711.072954880832</v>
       </c>
       <c r="C31" t="n">
-        <v>677.4616523829102</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D31" t="n">
-        <v>527.3450129705744</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E31" t="n">
-        <v>527.3450129705744</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F31" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241959</v>
       </c>
       <c r="K31" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688077</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799373</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471205</v>
       </c>
       <c r="N31" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974669</v>
       </c>
       <c r="O31" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980066</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585749</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557905</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557905</v>
       </c>
       <c r="S31" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557905</v>
       </c>
       <c r="T31" t="n">
-        <v>1282.730788346944</v>
+        <v>1498.916270557905</v>
       </c>
       <c r="U31" t="n">
-        <v>1282.730788346944</v>
+        <v>1498.916270557905</v>
       </c>
       <c r="V31" t="n">
-        <v>1028.046300141057</v>
+        <v>1498.916270557905</v>
       </c>
       <c r="W31" t="n">
-        <v>1028.046300141057</v>
+        <v>1341.503549752619</v>
       </c>
       <c r="X31" t="n">
-        <v>1028.046300141057</v>
+        <v>1113.513998854602</v>
       </c>
       <c r="Y31" t="n">
-        <v>1028.046300141057</v>
+        <v>892.7214197110717</v>
       </c>
     </row>
     <row r="32">
@@ -6674,7 +6676,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
         <v>2059.358867610191</v>
@@ -6683,25 +6685,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J32" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6740,10 +6742,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6777,25 +6779,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6832,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.21709146028584</v>
+        <v>1029.666285013068</v>
       </c>
       <c r="C34" t="n">
-        <v>97.21709146028584</v>
+        <v>860.7301020851612</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028584</v>
+        <v>710.6134626728254</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028584</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H34" t="n">
         <v>97.21709146028584</v>
@@ -6889,19 +6891,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="U34" t="n">
-        <v>1209.787631771461</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V34" t="n">
-        <v>955.1031435655738</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W34" t="n">
-        <v>727.647686332073</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="X34" t="n">
-        <v>499.6581354340557</v>
+        <v>1432.107328986838</v>
       </c>
       <c r="Y34" t="n">
-        <v>278.8655562905255</v>
+        <v>1211.314749843308</v>
       </c>
     </row>
     <row r="35">
@@ -6911,7 +6913,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
@@ -6971,16 +6973,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7014,25 +7016,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>563.7235867775518</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1332.091733170013</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.21709146028584</v>
+        <v>4143.527841994867</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028584</v>
+        <v>4143.527841994867</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028584</v>
+        <v>4143.527841994867</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028584</v>
+        <v>4036.173262924875</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028584</v>
+        <v>3889.283315426964</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028584</v>
+        <v>3721.107993746785</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028584</v>
+        <v>3570.689985294728</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="J37" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380585</v>
       </c>
       <c r="K37" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625197</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636326</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403509</v>
       </c>
       <c r="N37" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O37" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S37" t="n">
-        <v>1382.222354598086</v>
+        <v>4660.934562929845</v>
       </c>
       <c r="T37" t="n">
-        <v>1158.436939387592</v>
+        <v>4660.934562929845</v>
       </c>
       <c r="U37" t="n">
-        <v>869.3083006011506</v>
+        <v>4660.934562929845</v>
       </c>
       <c r="V37" t="n">
-        <v>614.6238123952637</v>
+        <v>4660.934562929845</v>
       </c>
       <c r="W37" t="n">
-        <v>325.2066423583032</v>
+        <v>4371.517392892884</v>
       </c>
       <c r="X37" t="n">
-        <v>97.21709146028584</v>
+        <v>4143.527841994867</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.21709146028584</v>
+        <v>4143.527841994867</v>
       </c>
     </row>
     <row r="38">
@@ -7148,7 +7150,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
@@ -7157,25 +7159,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7190,10 +7192,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014292</v>
@@ -7208,16 +7210,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7254,25 +7256,25 @@
         <v>138.7081686256434</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L39" t="n">
-        <v>534.5429807341673</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M39" t="n">
-        <v>841.8631140141288</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N39" t="n">
-        <v>1171.725741678162</v>
+        <v>1908.095276920732</v>
       </c>
       <c r="O39" t="n">
-        <v>1797.533454227377</v>
+        <v>2187.63534213943</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2392.657822921639</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028584</v>
+        <v>583.2726413366777</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028584</v>
+        <v>414.3364584087708</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028584</v>
+        <v>414.3364584087708</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028584</v>
+        <v>414.3364584087708</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028584</v>
+        <v>414.3364584087708</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I40" t="n">
         <v>97.21709146028584</v>
@@ -7357,25 +7359,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1379.229518531123</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>1379.229518531123</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U40" t="n">
-        <v>1090.100879744681</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V40" t="n">
-        <v>835.416391538794</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="W40" t="n">
-        <v>545.9992215018333</v>
+        <v>985.7136853104475</v>
       </c>
       <c r="X40" t="n">
-        <v>318.0096706038159</v>
+        <v>985.7136853104475</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028584</v>
+        <v>764.9211061669174</v>
       </c>
     </row>
     <row r="41">
@@ -7421,7 +7423,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
@@ -7488,22 +7490,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>841.8631140141288</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
-        <v>1171.725741678162</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
         <v>2328.464088060424</v>
@@ -7543,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>879.5496456007323</v>
+        <v>467.9934022109799</v>
       </c>
       <c r="C43" t="n">
-        <v>710.6134626728254</v>
+        <v>299.057219283073</v>
       </c>
       <c r="D43" t="n">
-        <v>710.6134626728254</v>
+        <v>299.057219283073</v>
       </c>
       <c r="E43" t="n">
-        <v>562.7003690904323</v>
+        <v>299.057219283073</v>
       </c>
       <c r="F43" t="n">
-        <v>415.8104215925219</v>
+        <v>299.057219283073</v>
       </c>
       <c r="G43" t="n">
-        <v>247.6350999123426</v>
+        <v>130.8818976028936</v>
       </c>
       <c r="H43" t="n">
         <v>97.21709146028584</v>
@@ -7591,28 +7593,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T43" t="n">
-        <v>1275.130855347408</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U43" t="n">
-        <v>1275.130855347408</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V43" t="n">
-        <v>1061.198110430972</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="W43" t="n">
-        <v>1061.198110430972</v>
+        <v>1098.423997082767</v>
       </c>
       <c r="X43" t="n">
-        <v>1061.198110430972</v>
+        <v>870.4344461847497</v>
       </c>
       <c r="Y43" t="n">
-        <v>1061.198110430972</v>
+        <v>649.6418670412196</v>
       </c>
     </row>
     <row r="44">
@@ -7625,49 +7627,49 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155885</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822458</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823792</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514096</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795209</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.1647015151</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619125</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643322</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
@@ -7679,16 +7681,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7710,37 +7712,37 @@
         <v>664.0438201101999</v>
       </c>
       <c r="E45" t="n">
-        <v>504.8063651047445</v>
+        <v>504.8063651047444</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316293</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358146</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675023</v>
       </c>
       <c r="I45" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256438</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277041</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341689</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>841.8631140141313</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1171.725741678165</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324676</v>
       </c>
       <c r="P45" t="n">
         <v>2328.464088060424</v>
@@ -7804,49 +7806,49 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241959</v>
       </c>
       <c r="K46" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688077</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799373</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471205</v>
       </c>
       <c r="N46" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974669</v>
       </c>
       <c r="O46" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980066</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585749</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557905</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557905</v>
       </c>
       <c r="S46" t="n">
-        <v>1382.222354598086</v>
+        <v>1498.916270557905</v>
       </c>
       <c r="T46" t="n">
-        <v>1158.436939387592</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U46" t="n">
-        <v>869.3083006011506</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V46" t="n">
-        <v>614.6238123952637</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W46" t="n">
-        <v>325.2066423583032</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X46" t="n">
-        <v>97.21709146028584</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y46" t="n">
         <v>97.21709146028584</v>
@@ -8055,13 +8057,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>251.4045252050816</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8073,7 +8075,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>275.0442842992659</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8292,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8301,7 +8303,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>422.2865794093296</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8313,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747117</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8541,10 +8543,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451758</v>
       </c>
       <c r="O9" t="n">
-        <v>274.4264991783527</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8948,7 +8950,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9003,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9012,19 +9014,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>124.3400780863229</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>73.64859338270685</v>
       </c>
       <c r="R15" t="n">
         <v>34.78428385445218</v>
@@ -9185,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9243,22 +9245,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>288.4091825776738</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>234.4116509503169</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9401,7 +9403,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>324.145412571165</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
         <v>417.6612145504504</v>
@@ -9480,19 +9482,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>288.4091825776757</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>73.53204524670076</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -9659,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9720,16 +9722,16 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>465.7050637499999</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>52.49733361305255</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -9896,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9951,31 +9953,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>29.47535963978231</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>277.6717966208014</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10133,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987297522</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10188,31 +10190,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>288.4091825776707</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445199</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10425,28 +10427,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>423.3376789165117</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>34.78428385445218</v>
@@ -10662,28 +10664,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>29.47535963978231</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>34.78428385445218</v>
@@ -10844,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10902,7 +10904,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10911,19 +10913,19 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>349.7653003338571</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>145.2351313103793</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11066,7 +11068,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928327</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11136,10 +11138,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11151,10 +11153,10 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>360.5026862907258</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11306,7 +11308,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119768</v>
       </c>
       <c r="O44" t="n">
         <v>380.8001812627454</v>
@@ -11373,10 +11375,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11388,16 +11390,16 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>360.5026862907204</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445197</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23416,7 +23418,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23431,7 +23433,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>61.71651166639525</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23461,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037968</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23476,7 +23478,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>77.06777566241342</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23653,25 +23655,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>35.23758662682656</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>21.06135193153597</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23707,13 +23709,13 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23887,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>91.26539274301206</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23944,19 +23946,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>184.2367554972914</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24364,19 +24366,19 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>111.5759488092431</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
@@ -24409,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
@@ -24427,7 +24429,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>96.29904972659767</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24601,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24616,10 +24618,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>110.4192454642719</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>109.9643524037927</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>30.75201340998649</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24667,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>37.04855940278472</v>
       </c>
     </row>
     <row r="29">
@@ -24844,19 +24846,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.4192454642719</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>109.9643524037927</v>
       </c>
       <c r="S31" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>7.523933669540099</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>130.6844047393579</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25075,22 +25077,22 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>110.419245464272</v>
@@ -25129,16 +25131,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>61.3420956754253</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>159.5688032336831</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25318,19 +25320,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>40.15292936727639</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,16 +25362,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25546,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25561,13 +25563,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>111.8784690161856</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,22 +25599,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>79.43092547709136</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25792,16 +25794,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>115.5856702863545</v>
       </c>
       <c r="I43" t="n">
         <v>110.419245464272</v>
@@ -25831,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>40.34422585655622</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26041,7 +26043,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>110.4192454642719</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>109.9643524037927</v>
       </c>
       <c r="S46" t="n">
-        <v>82.39383318338545</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>103.0576765518747</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26089,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>915460.0742370031</v>
+        <v>915460.0742370033</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>915460.0742370033</v>
+        <v>915460.0742370035</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>915460.0742370032</v>
+        <v>915460.0742370033</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>915460.0742370035</v>
+        <v>915460.0742370033</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>915460.0742370033</v>
+        <v>915460.0742370032</v>
       </c>
     </row>
     <row r="11">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>915460.0742370032</v>
+        <v>915460.0742370033</v>
       </c>
     </row>
     <row r="16">
@@ -26311,28 +26313,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>513151.106165177</v>
+        <v>513151.1061651769</v>
       </c>
       <c r="C2" t="n">
-        <v>513151.1061651773</v>
+        <v>513151.1061651771</v>
       </c>
       <c r="D2" t="n">
         <v>513151.1061651771</v>
       </c>
       <c r="E2" t="n">
-        <v>488786.3246721357</v>
+        <v>488786.3246721359</v>
       </c>
       <c r="F2" t="n">
-        <v>488786.3246721358</v>
+        <v>488786.324672136</v>
       </c>
       <c r="G2" t="n">
+        <v>488786.324672136</v>
+      </c>
+      <c r="H2" t="n">
         <v>488786.3246721359</v>
       </c>
-      <c r="H2" t="n">
-        <v>488786.324672136</v>
-      </c>
       <c r="I2" t="n">
-        <v>488786.3246721358</v>
+        <v>488786.3246721359</v>
       </c>
       <c r="J2" t="n">
         <v>488786.3246721359</v>
@@ -26344,13 +26346,13 @@
         <v>488786.3246721358</v>
       </c>
       <c r="M2" t="n">
+        <v>488786.324672136</v>
+      </c>
+      <c r="N2" t="n">
+        <v>488786.324672136</v>
+      </c>
+      <c r="O2" t="n">
         <v>488786.3246721359</v>
-      </c>
-      <c r="N2" t="n">
-        <v>488786.3246721362</v>
-      </c>
-      <c r="O2" t="n">
-        <v>488786.324672136</v>
       </c>
       <c r="P2" t="n">
         <v>488786.3246721359</v>
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768963</v>
+        <v>525160.0364768959</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925945</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1.059341229847632e-09</v>
       </c>
     </row>
     <row r="4">
@@ -26415,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>183348.686857128</v>
+      </c>
+      <c r="C4" t="n">
         <v>183348.6868571279</v>
       </c>
-      <c r="C4" t="n">
-        <v>183348.686857128</v>
-      </c>
       <c r="D4" t="n">
-        <v>183348.6868571281</v>
+        <v>183348.6868571279</v>
       </c>
       <c r="E4" t="n">
         <v>36432.48351773395</v>
       </c>
       <c r="F4" t="n">
-        <v>36432.48351773394</v>
+        <v>36432.48351773395</v>
       </c>
       <c r="G4" t="n">
-        <v>36432.48351773394</v>
+        <v>36432.48351773396</v>
       </c>
       <c r="H4" t="n">
         <v>36432.48351773396</v>
@@ -26439,25 +26441,25 @@
         <v>36432.48351773395</v>
       </c>
       <c r="J4" t="n">
-        <v>36432.48351773395</v>
+        <v>36432.48351773362</v>
       </c>
       <c r="K4" t="n">
-        <v>36432.48351773395</v>
+        <v>36432.48351773385</v>
       </c>
       <c r="L4" t="n">
         <v>36432.48351773395</v>
       </c>
       <c r="M4" t="n">
+        <v>36432.48351773396</v>
+      </c>
+      <c r="N4" t="n">
         <v>36432.48351773395</v>
       </c>
-      <c r="N4" t="n">
+      <c r="O4" t="n">
         <v>36432.48351773396</v>
       </c>
-      <c r="O4" t="n">
-        <v>36432.48351773395</v>
-      </c>
       <c r="P4" t="n">
-        <v>36432.48351773395</v>
+        <v>36432.48351773384</v>
       </c>
     </row>
     <row r="5">
@@ -26470,19 +26472,19 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340944</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871662</v>
@@ -26491,10 +26493,10 @@
         <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871675</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="L5" t="n">
         <v>91987.32594871662</v>
@@ -26509,7 +26511,7 @@
         <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871667</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-343024.5379699048</v>
+        <v>-343024.5379699051</v>
       </c>
       <c r="C6" t="n">
-        <v>246943.3412446399</v>
+        <v>246943.3412446397</v>
       </c>
       <c r="D6" t="n">
         <v>246943.3412446397</v>
       </c>
       <c r="E6" t="n">
-        <v>-164793.5212712111</v>
+        <v>-164793.5212712106</v>
       </c>
       <c r="F6" t="n">
+        <v>360366.5152056855</v>
+      </c>
+      <c r="G6" t="n">
+        <v>360366.5152056855</v>
+      </c>
+      <c r="H6" t="n">
         <v>360366.5152056853</v>
-      </c>
-      <c r="G6" t="n">
-        <v>360366.5152056853</v>
-      </c>
-      <c r="H6" t="n">
-        <v>360366.5152056854</v>
       </c>
       <c r="I6" t="n">
         <v>360366.5152056853</v>
       </c>
       <c r="J6" t="n">
-        <v>183943.2960130924</v>
+        <v>183943.296013091</v>
       </c>
       <c r="K6" t="n">
-        <v>360366.5152056853</v>
+        <v>360366.5152056854</v>
       </c>
       <c r="L6" t="n">
-        <v>360366.5152056852</v>
+        <v>360366.5152056863</v>
       </c>
       <c r="M6" t="n">
-        <v>225565.4999718482</v>
+        <v>225565.4999718483</v>
       </c>
       <c r="N6" t="n">
-        <v>360366.5152056856</v>
+        <v>360366.5152056855</v>
       </c>
       <c r="O6" t="n">
-        <v>360366.5152056855</v>
+        <v>360366.5152056854</v>
       </c>
       <c r="P6" t="n">
-        <v>360366.5152056853</v>
+        <v>360366.5152056844</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170865</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541002</v>
@@ -26759,10 +26761,10 @@
         <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541017</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541017</v>
       </c>
       <c r="L3" t="n">
         <v>830.3824054541002</v>
@@ -26777,7 +26779,7 @@
         <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541018</v>
       </c>
     </row>
     <row r="4">
@@ -26790,10 +26792,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545553</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26811,7 +26813,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="J4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253575</v>
       </c>
       <c r="K4" t="n">
         <v>1215.213643253573</v>
@@ -26957,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370134</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26981,13 +26983,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>1.477928890381008e-12</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-3.041335612225048e-13</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -26999,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1.591615728102624e-12</v>
       </c>
     </row>
     <row r="4">
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545574</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27385,7 +27387,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27394,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>204.8489619230166</v>
+        <v>102.3771892706852</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27424,16 +27426,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27442,10 +27444,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,19 +27536,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27558,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,16 +27581,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>30.33030577335839</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27603,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>158.8578157762263</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,25 +27615,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>272.7773237853505</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>132.9569981522694</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27661,13 +27663,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -27676,13 +27678,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,19 +27773,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>86.74656227310814</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27792,7 +27794,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27816,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27840,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>78.38489325132616</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27856,22 +27858,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>138.3069574329619</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>360.0414524599823</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,22 +27906,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,10 +28013,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28023,16 +28025,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853702</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491433</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28065,13 +28067,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>102.2509523502731</v>
+        <v>52.0259221965172</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -29338,7 +29340,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>-6.707523425575346e-12</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -31045,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31282,43 +31284,43 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P5" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N6" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,25 +31460,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554464</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727435</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081576</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630668</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405366</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338303</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954665</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044136</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633793</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727381</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T8" t="n">
-        <v>6.64752920647355</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141105</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H9" t="n">
-        <v>7.84709008118891</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890688</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396473</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649101</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478006</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983121</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736699</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923046</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034979</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372663</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.0534542921061915</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078608</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644439</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813575</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302235</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246923</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M10" t="n">
-        <v>106.7776065917249</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666593</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175839</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383796</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678005</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701162</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695335</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197222</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315608</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32935,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443622</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444951</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176654</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961209</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041495</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304449</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565528</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927196</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540896</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130947001</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647502</v>
       </c>
       <c r="R26" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446481</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104662</v>
       </c>
       <c r="T26" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562946</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354898</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354106</v>
       </c>
       <c r="H27" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386728</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127075</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215737</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622987</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358991</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724854</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.536285481347</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855533</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458555</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>227.994806871096</v>
       </c>
       <c r="R27" t="n">
-        <v>110.8952201095118</v>
+        <v>110.895220109512</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.1761272367747</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361502</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680333</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081167</v>
       </c>
       <c r="H28" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990347</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298637</v>
       </c>
       <c r="J28" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822385</v>
       </c>
       <c r="K28" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557937</v>
       </c>
       <c r="L28" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196128</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171323</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263754</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065636</v>
       </c>
       <c r="P28" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469076</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235693</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337681</v>
       </c>
       <c r="S28" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336905</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892256</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351828</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443622</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444951</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176654</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961209</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041495</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304449</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565528</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927196</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540896</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130947001</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647502</v>
       </c>
       <c r="R29" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446481</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104662</v>
       </c>
       <c r="T29" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562946</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354898</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354106</v>
       </c>
       <c r="H30" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386728</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127075</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215737</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622987</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358991</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724854</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.536285481347</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855533</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458555</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>227.994806871096</v>
       </c>
       <c r="R30" t="n">
-        <v>110.8952201095118</v>
+        <v>110.895220109512</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.1761272367747</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361502</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680333</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081167</v>
       </c>
       <c r="H31" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990347</v>
       </c>
       <c r="I31" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298637</v>
       </c>
       <c r="J31" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822385</v>
       </c>
       <c r="K31" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557937</v>
       </c>
       <c r="L31" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196128</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171323</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263754</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065636</v>
       </c>
       <c r="P31" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469076</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235693</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337681</v>
       </c>
       <c r="S31" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336905</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892256</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351828</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -34357,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443623</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444951</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176654</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961209</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041496</v>
       </c>
       <c r="L44" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304449</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565529</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927197</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540896</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130947001</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647503</v>
       </c>
       <c r="R44" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446482</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104662</v>
       </c>
       <c r="T44" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562947</v>
       </c>
       <c r="U44" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354898</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354106</v>
       </c>
       <c r="H45" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386729</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127076</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215737</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622987</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358992</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724854</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.536285481347</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855534</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458555</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710956</v>
+        <v>227.994806871096</v>
       </c>
       <c r="R45" t="n">
-        <v>110.8952201095118</v>
+        <v>110.895220109512</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.1761272367747</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361503</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680333</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081167</v>
       </c>
       <c r="H46" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990348</v>
       </c>
       <c r="I46" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298638</v>
       </c>
       <c r="J46" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822385</v>
       </c>
       <c r="K46" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557937</v>
       </c>
       <c r="L46" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196128</v>
       </c>
       <c r="M46" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171323</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263755</v>
       </c>
       <c r="O46" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065636</v>
       </c>
       <c r="P46" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469076</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235694</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337683</v>
       </c>
       <c r="S46" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336906</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892257</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.0816769579135183</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>289.2671274730081</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>296.2227415328935</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34933,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P5" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M6" t="n">
-        <v>486.0228424856235</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35106,10 +35108,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O7" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343418</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.53613944353</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060963</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492235</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898688</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770687</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031297</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713856</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262937</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355125</v>
       </c>
       <c r="O9" t="n">
-        <v>325.1459203262129</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.811094813734</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.8709020871395</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535655</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N10" t="n">
-        <v>148.3708461458879</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873145</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35668,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
         <v>150.5754385879392</v>
@@ -35732,19 +35734,19 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M15" t="n">
-        <v>434.7644551367891</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.0130327850741</v>
+        <v>161.661626167781</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35905,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,22 +35965,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
-        <v>537.6668875336981</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
         <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>567.6062243483298</v>
       </c>
       <c r="O18" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
@@ -36121,7 +36123,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303332</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
@@ -36200,19 +36202,19 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
-        <v>537.6668875337</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
         <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>355.8957474878089</v>
       </c>
       <c r="P21" t="n">
         <v>207.0934149315246</v>
@@ -36379,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36440,16 +36442,16 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>776.1294408004661</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O24" t="n">
-        <v>334.8610358541607</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
         <v>207.0934149315246</v>
@@ -36592,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415084</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303338</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109081</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221126</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081129</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951482</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109132</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502054</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349844</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36673,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953158</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005183</v>
       </c>
       <c r="L27" t="n">
-        <v>278.7330645958066</v>
+        <v>249.257704956025</v>
       </c>
       <c r="M27" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504671</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980136</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411089</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315246</v>
+        <v>484.7652115523267</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209236</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686883</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556572</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299109</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799289</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789729</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056036</v>
+        <v>273.276877805604</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206032</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118011</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187496</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415084</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303338</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109081</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221126</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081129</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951482</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109132</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502054</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349123</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953158</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005183</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>249.257704956025</v>
       </c>
       <c r="M30" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504671</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980136</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411089</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315246</v>
+        <v>495.502597509196</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209236</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556572</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299109</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799289</v>
       </c>
       <c r="M31" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789729</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056036</v>
+        <v>273.276877805604</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206032</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118011</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187496</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37145,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37382,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>278.7330645958066</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37564,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,7 +37624,7 @@
         <v>41.91017895490666</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
@@ -37631,19 +37633,19 @@
         <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O39" t="n">
-        <v>632.1290025749652</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>233.2481640954534</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37786,7 +37788,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37856,10 +37858,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
         <v>249.2577049560243</v>
@@ -37871,10 +37873,10 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>642.8663885318339</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -38014,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415084</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303338</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109081</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081056</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951482</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109132</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502055</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349847</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>41.910178954907</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879397</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>249.257704956025</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504671</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980137</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>642.8663885318293</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714625</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209236</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556573</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299109</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799289</v>
       </c>
       <c r="M46" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789729</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056036</v>
+        <v>273.276877805604</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206033</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118011</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187497</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_5_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_5_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1672374.085019354</v>
+        <v>1665357.070127643</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800626</v>
+        <v>2264668.837800619</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.511665969</v>
+        <v>1169509.51166597</v>
       </c>
     </row>
     <row r="9">
@@ -664,19 +664,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>331.7615209354891</v>
       </c>
       <c r="H2" t="n">
-        <v>221.545583493672</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -706,25 +706,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -819,16 +819,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>26.32882004050029</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -870,7 +870,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>194.7047996847259</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>92.49556798565702</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -907,16 +907,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>307.9222910483176</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448612</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,13 +943,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481167</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -992,10 +992,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H6" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1056,16 +1056,16 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>58.67448574982311</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853698</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491428</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1119,10 +1119,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>155.4526127311943</v>
       </c>
     </row>
     <row r="8">
@@ -1132,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>216.3760841877211</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>61.26526235735</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1180,28 +1180,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481167</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1229,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>234.4970761400738</v>
+        <v>83.82466560786631</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1539,7 +1539,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,25 +1578,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>209.4552226741776</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>212.4576348641828</v>
       </c>
     </row>
     <row r="14">
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1770,16 +1770,16 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>113.3778863913858</v>
+        <v>118.4898845065121</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1846,7 +1846,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2004,25 +2004,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,25 +2052,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>67.90088782653663</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>203.8435192151922</v>
       </c>
     </row>
     <row r="20">
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338503</v>
       </c>
       <c r="U20" t="n">
         <v>251.078595249801</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,19 +2238,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2289,25 +2289,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>203.8435192151918</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>155.8385935972342</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,19 +2475,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2529,22 +2529,22 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>129.4106056624395</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>115.526976800218</v>
       </c>
     </row>
     <row r="26">
@@ -2569,13 +2569,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H26" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274054</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051987</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2620,7 +2620,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.7311006784757</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2651,10 +2651,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H27" t="n">
-        <v>94.98542483262918</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014433</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T27" t="n">
         <v>192.9654699154601</v>
@@ -2712,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2763,16 +2763,16 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>181.5360939493101</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2806,13 +2806,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H29" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274054</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051987</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2888,10 +2888,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H30" t="n">
-        <v>94.98542483262918</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014433</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T30" t="n">
         <v>192.9654699154601</v>
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -3003,22 +3003,22 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>155.8385935972331</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>195.8155841663235</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3186,25 +3186,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3237,25 +3237,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>66.14085215535403</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3271,7 +3271,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.6830416206827</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3319,7 +3319,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U35" t="n">
         <v>251.078595249801</v>
@@ -3429,22 +3429,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>106.2810332792928</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,25 +3474,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>281.3698338194063</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3660,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3675,13 +3675,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>54.61509944719197</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,25 +3711,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3897,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3912,10 +3912,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>33.32815808118166</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3948,25 +3948,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>136.5752847581504</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3991,13 +3991,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H44" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274051</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051987</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4073,10 +4073,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H45" t="n">
-        <v>94.98542483262918</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014432</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T45" t="n">
         <v>192.9654699154601</v>
@@ -4185,10 +4185,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T46" t="n">
-        <v>118.4898845065146</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2014.892857925727</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="C2" t="n">
-        <v>1645.930340985316</v>
+        <v>1293.521057189058</v>
       </c>
       <c r="D2" t="n">
-        <v>1645.930340985316</v>
+        <v>935.2553585823075</v>
       </c>
       <c r="E2" t="n">
-        <v>1260.142088387071</v>
+        <v>549.4671059840632</v>
       </c>
       <c r="F2" t="n">
-        <v>849.1561835974637</v>
+        <v>542.5216052348597</v>
       </c>
       <c r="G2" t="n">
-        <v>431.1923754956506</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4330,13 +4330,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4357,25 +4357,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2388.358616186807</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2388.358616186807</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2388.358616186807</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X2" t="n">
-        <v>2014.892857925727</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="Y2" t="n">
-        <v>2014.892857925727</v>
+        <v>1662.48357412947</v>
       </c>
     </row>
     <row r="3">
@@ -4409,22 +4409,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4433,7 +4433,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>99.5995062532301</v>
+        <v>546.4805193761945</v>
       </c>
       <c r="C4" t="n">
-        <v>99.5995062532301</v>
+        <v>377.5443364482876</v>
       </c>
       <c r="D4" t="n">
-        <v>99.5995062532301</v>
+        <v>227.4276970359519</v>
       </c>
       <c r="E4" t="n">
-        <v>99.5995062532301</v>
+        <v>227.4276970359519</v>
       </c>
       <c r="F4" t="n">
-        <v>99.5995062532301</v>
+        <v>80.53774953804151</v>
       </c>
       <c r="G4" t="n">
-        <v>99.5995062532301</v>
+        <v>80.53774953804151</v>
       </c>
       <c r="H4" t="n">
-        <v>99.5995062532301</v>
+        <v>80.53774953804151</v>
       </c>
       <c r="I4" t="n">
-        <v>99.5995062532301</v>
+        <v>80.53774953804151</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>502.0405502269999</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>502.0405502269999</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>502.0405502269999</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>502.0405502269999</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>502.0405502269999</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>281.2479710834698</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="5">
@@ -4543,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1873.842488573869</v>
+        <v>1491.915471247703</v>
       </c>
       <c r="C5" t="n">
-        <v>1780.41262192169</v>
+        <v>1122.952954307291</v>
       </c>
       <c r="D5" t="n">
-        <v>1422.14692331494</v>
+        <v>764.6872557005406</v>
       </c>
       <c r="E5" t="n">
-        <v>1036.358670716696</v>
+        <v>378.8990031022964</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4594,25 +4594,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834949</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2247.308246834949</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V5" t="n">
-        <v>2247.308246834949</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W5" t="n">
-        <v>2247.308246834949</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X5" t="n">
-        <v>1873.842488573869</v>
+        <v>2268.654643287636</v>
       </c>
       <c r="Y5" t="n">
-        <v>1873.842488573869</v>
+        <v>1878.515311311824</v>
       </c>
     </row>
     <row r="6">
@@ -4637,7 +4637,7 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4649,10 +4649,10 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615929</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572649</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
         <v>1313.210296315296</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>477.9194859165264</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C7" t="n">
-        <v>308.9833029886195</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D7" t="n">
-        <v>158.8666635762837</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E7" t="n">
-        <v>158.8666635762837</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F7" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G7" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036446</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658211</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600565</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600565</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600565</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600565</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U7" t="n">
-        <v>698.7120650600565</v>
+        <v>438.9553738610023</v>
       </c>
       <c r="V7" t="n">
-        <v>698.7120650600565</v>
+        <v>438.9553738610023</v>
       </c>
       <c r="W7" t="n">
-        <v>698.7120650600565</v>
+        <v>438.9553738610023</v>
       </c>
       <c r="X7" t="n">
-        <v>698.7120650600565</v>
+        <v>210.9658229629849</v>
       </c>
       <c r="Y7" t="n">
-        <v>477.9194859165264</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1487.242648509748</v>
+        <v>1249.712458167646</v>
       </c>
       <c r="C8" t="n">
-        <v>1487.242648509748</v>
+        <v>880.7499412272343</v>
       </c>
       <c r="D8" t="n">
-        <v>1268.68094731003</v>
+        <v>522.4842426204839</v>
       </c>
       <c r="E8" t="n">
-        <v>882.8926947117852</v>
+        <v>136.6959900222396</v>
       </c>
       <c r="F8" t="n">
-        <v>471.9067899221776</v>
+        <v>129.7504892730362</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036447</v>
+        <v>115.8270852116271</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862887</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834949</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2247.308246834949</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>2247.308246834949</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W8" t="n">
-        <v>2247.308246834949</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X8" t="n">
-        <v>1873.84248857387</v>
+        <v>1639.851790143458</v>
       </c>
       <c r="Y8" t="n">
-        <v>1873.84248857387</v>
+        <v>1249.712458167646</v>
       </c>
     </row>
     <row r="9">
@@ -4880,25 +4880,25 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615929</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572649</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
         <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036447</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036447</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036447</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036447</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036447</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036447</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036447</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036447</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658211</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>579.9823256406186</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>579.9823256406186</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>579.9823256406186</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>290.8087152951865</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V10" t="n">
-        <v>290.8087152951865</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="W10" t="n">
-        <v>53.94298182036447</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036447</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036447</v>
+        <v>99.59950625323012</v>
       </c>
     </row>
     <row r="11">
@@ -5041,19 +5041,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
@@ -5120,25 +5120,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341673</v>
+        <v>1206.718781115523</v>
       </c>
       <c r="M12" t="n">
-        <v>1247.466478653857</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918008</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>208.7516828383384</v>
+        <v>413.0432218861031</v>
       </c>
       <c r="C13" t="n">
-        <v>208.7516828383384</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D13" t="n">
-        <v>208.7516828383384</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E13" t="n">
-        <v>208.7516828383384</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
@@ -5226,25 +5226,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.92115703528</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T13" t="n">
-        <v>964.1357418247858</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U13" t="n">
-        <v>675.007103038344</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="V13" t="n">
-        <v>420.3226148324571</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="W13" t="n">
-        <v>208.7516828383384</v>
+        <v>809.2953582963255</v>
       </c>
       <c r="X13" t="n">
-        <v>208.7516828383384</v>
+        <v>809.2953582963255</v>
       </c>
       <c r="Y13" t="n">
-        <v>208.7516828383384</v>
+        <v>594.6916867163428</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822462</v>
@@ -5278,7 +5278,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
         <v>889.2841917514082</v>
@@ -5290,40 +5290,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5357,25 +5357,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>412.6079778147081</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L15" t="n">
-        <v>1026.505047571597</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M15" t="n">
-        <v>1333.825180851558</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N15" t="n">
-        <v>1663.687808515591</v>
+        <v>1433.546326320615</v>
       </c>
       <c r="O15" t="n">
-        <v>1943.227873734288</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P15" t="n">
-        <v>2463.528495470035</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>674.7185717878251</v>
+        <v>216.9038434870658</v>
       </c>
       <c r="C16" t="n">
-        <v>674.7185717878251</v>
+        <v>216.9038434870658</v>
       </c>
       <c r="D16" t="n">
-        <v>560.1954542207687</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
         <v>97.21709146028584</v>
@@ -5460,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>964.1357418247858</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U16" t="n">
-        <v>964.1357418247858</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V16" t="n">
-        <v>964.1357418247858</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W16" t="n">
-        <v>674.7185717878251</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X16" t="n">
-        <v>674.7185717878251</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="Y16" t="n">
-        <v>674.7185717878251</v>
+        <v>216.9038434870658</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5591,25 +5591,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K18" t="n">
-        <v>412.6079778147081</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L18" t="n">
-        <v>659.3731057211721</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M18" t="n">
-        <v>966.6932390011336</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N18" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O18" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P18" t="n">
         <v>2328.464088060424</v>
@@ -5649,40 +5649,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1141.200876391121</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C19" t="n">
-        <v>972.2646934632137</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D19" t="n">
-        <v>822.1480540508779</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E19" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F19" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G19" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K19" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5691,34 +5691,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U19" t="n">
-        <v>1209.787631771461</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="V19" t="n">
-        <v>1141.200876391121</v>
+        <v>820.5263570570741</v>
       </c>
       <c r="W19" t="n">
-        <v>1141.200876391121</v>
+        <v>531.1091870201135</v>
       </c>
       <c r="X19" t="n">
-        <v>1141.200876391121</v>
+        <v>303.1196361220962</v>
       </c>
       <c r="Y19" t="n">
-        <v>1141.200876391121</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="20">
@@ -5728,58 +5728,58 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
@@ -5788,16 +5788,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5828,25 +5828,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>233.7852434110083</v>
       </c>
       <c r="K21" t="n">
-        <v>412.6079778147081</v>
+        <v>644.675512255521</v>
       </c>
       <c r="L21" t="n">
-        <v>659.3731057211721</v>
+        <v>891.4406401619851</v>
       </c>
       <c r="M21" t="n">
-        <v>966.6932390011336</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N21" t="n">
-        <v>1771.104817265284</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O21" t="n">
-        <v>2123.441607278215</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P21" t="n">
         <v>2328.464088060424</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>711.072954880832</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K22" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980067</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.08282758575</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557906</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557906</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557906</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557906</v>
       </c>
       <c r="U22" t="n">
-        <v>869.3083006011506</v>
+        <v>1498.916270557906</v>
       </c>
       <c r="V22" t="n">
-        <v>614.6238123952637</v>
+        <v>1498.916270557906</v>
       </c>
       <c r="W22" t="n">
-        <v>325.2066423583032</v>
+        <v>1341.503549752619</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028584</v>
+        <v>1113.513998854602</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028584</v>
+        <v>892.7214197110717</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805468</v>
       </c>
       <c r="H23" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6065,28 +6065,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K24" t="n">
-        <v>287.7778528277033</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L24" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M24" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O24" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P24" t="n">
-        <v>2536.440602918915</v>
+        <v>2358.217138262064</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6123,40 +6123,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>711.072954880832</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C25" t="n">
-        <v>542.1367719529251</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D25" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E25" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K25" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6165,34 +6165,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T25" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U25" t="n">
-        <v>1498.916270557902</v>
+        <v>986.0022165609669</v>
       </c>
       <c r="V25" t="n">
-        <v>1244.231782352015</v>
+        <v>731.31772835508</v>
       </c>
       <c r="W25" t="n">
-        <v>1244.231782352015</v>
+        <v>441.9005583181194</v>
       </c>
       <c r="X25" t="n">
-        <v>1113.513998854602</v>
+        <v>213.9110074201021</v>
       </c>
       <c r="Y25" t="n">
-        <v>892.7214197110717</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.217091460286</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823799</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514102</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795209</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515101</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619132</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643329</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899133</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207836</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.8545730143</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231271</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141875</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465308</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121738</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851623</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6302,31 +6302,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.217091460286</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126487</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571619</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636266</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643589</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307622</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.91651652632</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>416.5712828402496</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>247.6350999123427</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>247.6350999123427</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>247.6350999123427</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>247.6350999123427</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>247.6350999123427</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>97.217091460286</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.217091460286</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241961</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688078</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799374</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471205</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
-        <v>1049.608084974669</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980066</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585749</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557905</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557905</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473457</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T28" t="n">
-        <v>1298.996260473457</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U28" t="n">
-        <v>1298.996260473457</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V28" t="n">
-        <v>1298.996260473457</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W28" t="n">
-        <v>1009.579090436497</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>781.5895395384794</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y28" t="n">
-        <v>598.2197476704894</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6442,70 +6442,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155885</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823792</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514096</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795209</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.1647015151</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619132</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643329</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899133</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207836</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6527,37 +6527,37 @@
         <v>664.0438201101999</v>
       </c>
       <c r="E30" t="n">
-        <v>504.8063651047444</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316293</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358146</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675023</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126485</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571617</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636264</v>
+        <v>1206.718781115524</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643589</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307622</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.91651652632</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P30" t="n">
         <v>2328.464088060424</v>
@@ -6597,13 +6597,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>711.072954880832</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="C31" t="n">
-        <v>542.1367719529251</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D31" t="n">
-        <v>392.0201325405893</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E31" t="n">
         <v>244.1070389581962</v>
@@ -6621,52 +6621,52 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>109.5997839241959</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>259.7851881688077</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799373</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471205</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
-        <v>1049.608084974669</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O31" t="n">
-        <v>1283.483062980066</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585749</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557905</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557905</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1498.916270557905</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T31" t="n">
-        <v>1498.916270557905</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U31" t="n">
-        <v>1498.916270557905</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V31" t="n">
-        <v>1498.916270557905</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W31" t="n">
-        <v>1341.503549752619</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X31" t="n">
-        <v>1113.513998854602</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="Y31" t="n">
-        <v>892.7214197110717</v>
+        <v>244.1070389581962</v>
       </c>
     </row>
     <row r="32">
@@ -6679,28 +6679,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K32" t="n">
         <v>889.2841917514082</v>
@@ -6718,10 +6718,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014292</v>
@@ -6733,16 +6733,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1029.666285013068</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>860.7301020851612</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>710.6134626728254</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>562.7003690904323</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
         <v>97.21709146028584</v>
@@ -6885,25 +6885,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>1498.916270557902</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U34" t="n">
-        <v>1498.916270557902</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V34" t="n">
-        <v>1498.916270557902</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W34" t="n">
-        <v>1498.916270557902</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X34" t="n">
-        <v>1432.107328986838</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y34" t="n">
-        <v>1211.314749843308</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="35">
@@ -6913,7 +6913,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
@@ -6949,16 +6949,16 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014292</v>
@@ -6973,16 +6973,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>4143.527841994867</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="C37" t="n">
-        <v>4143.527841994867</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D37" t="n">
-        <v>4143.527841994867</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E37" t="n">
-        <v>4036.173262924875</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F37" t="n">
-        <v>3889.283315426964</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>3721.107993746785</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>3570.689985294728</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>4660.934562929845</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>4660.934562929845</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U37" t="n">
-        <v>4660.934562929845</v>
+        <v>990.9189019944725</v>
       </c>
       <c r="V37" t="n">
-        <v>4660.934562929845</v>
+        <v>990.9189019944725</v>
       </c>
       <c r="W37" t="n">
-        <v>4371.517392892884</v>
+        <v>990.9189019944725</v>
       </c>
       <c r="X37" t="n">
-        <v>4143.527841994867</v>
+        <v>762.9293510964552</v>
       </c>
       <c r="Y37" t="n">
-        <v>4143.527841994867</v>
+        <v>542.1367719529251</v>
       </c>
     </row>
     <row r="38">
@@ -7153,40 +7153,40 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
@@ -7207,16 +7207,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7253,25 +7253,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>796.3635653766202</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1103.683698656582</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
-        <v>1908.095276920732</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>2187.63534213943</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2392.657822921639</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>583.2726413366777</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>414.3364584087708</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>414.3364584087708</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>414.3364584087708</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>414.3364584087708</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
         <v>97.21709146028584</v>
@@ -7359,25 +7359,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T40" t="n">
-        <v>1275.130855347408</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U40" t="n">
-        <v>1275.130855347408</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V40" t="n">
-        <v>1275.130855347408</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W40" t="n">
-        <v>985.7136853104475</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>985.7136853104475</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y40" t="n">
-        <v>764.9211061669174</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="41">
@@ -7387,13 +7387,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
@@ -7402,19 +7402,19 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7423,19 +7423,19 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7444,19 +7444,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7487,7 +7487,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
         <v>263.5382936126482</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>467.9934022109799</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="C43" t="n">
-        <v>299.057219283073</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="D43" t="n">
-        <v>299.057219283073</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="E43" t="n">
-        <v>299.057219283073</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F43" t="n">
-        <v>299.057219283073</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G43" t="n">
-        <v>130.8818976028936</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7596,25 +7596,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S43" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T43" t="n">
-        <v>1387.841167119728</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U43" t="n">
-        <v>1387.841167119728</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V43" t="n">
-        <v>1387.841167119728</v>
+        <v>537.0522699493032</v>
       </c>
       <c r="W43" t="n">
-        <v>1098.423997082767</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="X43" t="n">
-        <v>870.4344461847497</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="Y43" t="n">
-        <v>649.6418670412196</v>
+        <v>247.6350999123426</v>
       </c>
     </row>
     <row r="44">
@@ -7636,43 +7636,43 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155885</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H44" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823792</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514096</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795209</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.1647015151</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619125</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643322</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7712,37 +7712,37 @@
         <v>664.0438201101999</v>
       </c>
       <c r="E45" t="n">
-        <v>504.8063651047444</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316293</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358146</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675023</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256438</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>287.7778528277041</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>534.5429807341689</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>841.8631140141313</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>1171.725741678165</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>1808.163466324676</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
         <v>2328.464088060424</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
-        <v>109.5997839241959</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K46" t="n">
-        <v>259.7851881688077</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799373</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471205</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N46" t="n">
-        <v>1049.608084974669</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O46" t="n">
-        <v>1283.483062980066</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585749</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557905</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557905</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557905</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T46" t="n">
-        <v>1379.229518531123</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U46" t="n">
-        <v>1090.100879744681</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V46" t="n">
-        <v>835.416391538794</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W46" t="n">
-        <v>545.9992215018333</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>318.0096706038159</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8075,7 +8075,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>275.0442842992659</v>
+        <v>199.0269485415596</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747117</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8543,13 +8543,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.9065542451758</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>199.02694854156</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8768,19 +8768,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>288.409182577675</v>
       </c>
       <c r="M12" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8789,10 +8789,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8929,7 +8929,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711646</v>
       </c>
       <c r="L14" t="n">
         <v>417.6612145504504</v>
@@ -8950,7 +8950,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9005,13 +9005,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9020,16 +9020,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>96.03744927814694</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>73.64859338270685</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9187,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9245,7 +9245,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9254,19 +9254,19 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>234.4116509503169</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298197</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9479,10 +9479,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>96.0374492781462</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9491,19 +9491,19 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>73.53204524670076</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9716,31 +9716,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>180.0237016735866</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9883,7 +9883,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>277.6717966208014</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987297522</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10196,7 +10196,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>288.4091825776757</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776707</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445199</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10372,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10597,7 +10597,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119847</v>
       </c>
       <c r="O35" t="n">
         <v>380.8001812627454</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>169.096615172074</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10901,7 +10901,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10913,16 +10913,16 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q39" t="n">
-        <v>145.2351313103793</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>34.78428385445218</v>
@@ -11071,7 +11071,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119856</v>
       </c>
       <c r="O41" t="n">
         <v>380.8001812627454</v>
@@ -11305,10 +11305,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928336</v>
       </c>
       <c r="N44" t="n">
-        <v>437.3469244119768</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
         <v>380.8001812627454</v>
@@ -11375,10 +11375,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11390,16 +11390,16 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>360.5026862907204</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445197</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23415,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23427,7 +23427,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
@@ -23436,7 +23436,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,25 +23466,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>77.06777566241342</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>6.127018487911954</v>
       </c>
     </row>
     <row r="14">
@@ -23658,16 +23658,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>35.23758662682656</v>
+        <v>30.12558851170024</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
@@ -23700,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23892,25 +23892,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,25 +23940,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>184.2367554972914</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>14.74113413690262</v>
       </c>
     </row>
     <row r="20">
@@ -24126,19 +24126,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
@@ -24177,25 +24177,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>82.39383318338557</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>130.6844047393568</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24363,19 +24363,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
@@ -24417,22 +24417,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>96.29904972659767</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>103.0576765518768</v>
       </c>
     </row>
     <row r="26">
@@ -24600,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24618,10 +24618,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>110.4192454642719</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,19 +24648,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037927</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>37.04855940278472</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24837,16 +24837,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24858,7 +24858,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>110.4192454642719</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037927</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>130.6844047393579</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>29.89407122271365</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25074,25 +25074,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
         <v>110.419245464272</v>
@@ -25125,25 +25125,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>159.5688032336831</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25317,22 +25317,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>40.15292936727639</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,25 +25362,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>4.867518579171076</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25548,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25563,13 +25563,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>111.8784690161856</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,25 +25599,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25785,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25800,10 +25800,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>115.5856702863545</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>110.419245464272</v>
@@ -25836,25 +25836,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>115.5623585656776</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26043,7 +26043,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>110.4192454642719</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037927</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T46" t="n">
-        <v>103.0576765518747</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>915460.0742370033</v>
+        <v>915460.0742370035</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>915460.0742370033</v>
+        <v>915460.0742370035</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>915460.0742370032</v>
+        <v>915460.0742370033</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>915460.0742370033</v>
+        <v>915460.0742370035</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>915460.0742370033</v>
+        <v>915460.0742370032</v>
       </c>
     </row>
     <row r="16">
@@ -26313,22 +26313,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>513151.1061651769</v>
+        <v>513151.1061651767</v>
       </c>
       <c r="C2" t="n">
-        <v>513151.1061651771</v>
+        <v>513151.1061651773</v>
       </c>
       <c r="D2" t="n">
-        <v>513151.1061651771</v>
+        <v>513151.1061651772</v>
       </c>
       <c r="E2" t="n">
         <v>488786.3246721359</v>
       </c>
       <c r="F2" t="n">
-        <v>488786.324672136</v>
+        <v>488786.3246721358</v>
       </c>
       <c r="G2" t="n">
-        <v>488786.324672136</v>
+        <v>488786.3246721359</v>
       </c>
       <c r="H2" t="n">
         <v>488786.3246721359</v>
@@ -26343,13 +26343,13 @@
         <v>488786.3246721359</v>
       </c>
       <c r="L2" t="n">
-        <v>488786.3246721358</v>
+        <v>488786.3246721359</v>
       </c>
       <c r="M2" t="n">
         <v>488786.324672136</v>
       </c>
       <c r="N2" t="n">
-        <v>488786.324672136</v>
+        <v>488786.3246721359</v>
       </c>
       <c r="O2" t="n">
         <v>488786.3246721359</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768959</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925945</v>
+        <v>176423.2191925927</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.059341229847632e-09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26423,43 +26423,43 @@
         <v>183348.6868571279</v>
       </c>
       <c r="D4" t="n">
-        <v>183348.6868571279</v>
+        <v>183348.686857128</v>
       </c>
       <c r="E4" t="n">
-        <v>36432.48351773395</v>
+        <v>36432.48351773394</v>
       </c>
       <c r="F4" t="n">
         <v>36432.48351773395</v>
       </c>
       <c r="G4" t="n">
+        <v>36432.48351773394</v>
+      </c>
+      <c r="H4" t="n">
+        <v>36432.48351773394</v>
+      </c>
+      <c r="I4" t="n">
+        <v>36432.48351773394</v>
+      </c>
+      <c r="J4" t="n">
         <v>36432.48351773396</v>
       </c>
-      <c r="H4" t="n">
+      <c r="K4" t="n">
+        <v>36432.48351773395</v>
+      </c>
+      <c r="L4" t="n">
         <v>36432.48351773396</v>
-      </c>
-      <c r="I4" t="n">
-        <v>36432.48351773395</v>
-      </c>
-      <c r="J4" t="n">
-        <v>36432.48351773362</v>
-      </c>
-      <c r="K4" t="n">
-        <v>36432.48351773385</v>
-      </c>
-      <c r="L4" t="n">
-        <v>36432.48351773395</v>
       </c>
       <c r="M4" t="n">
         <v>36432.48351773396</v>
       </c>
       <c r="N4" t="n">
-        <v>36432.48351773395</v>
+        <v>36432.48351773396</v>
       </c>
       <c r="O4" t="n">
+        <v>36432.48351773397</v>
+      </c>
+      <c r="P4" t="n">
         <v>36432.48351773396</v>
-      </c>
-      <c r="P4" t="n">
-        <v>36432.48351773384</v>
       </c>
     </row>
     <row r="5">
@@ -26472,31 +26472,31 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="F5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="G5" t="n">
+        <v>91987.32594871665</v>
+      </c>
+      <c r="H5" t="n">
+        <v>91987.32594871665</v>
+      </c>
+      <c r="I5" t="n">
+        <v>91987.32594871665</v>
+      </c>
+      <c r="J5" t="n">
         <v>91987.32594871662</v>
       </c>
-      <c r="F5" t="n">
+      <c r="K5" t="n">
         <v>91987.32594871662</v>
-      </c>
-      <c r="G5" t="n">
-        <v>91987.32594871662</v>
-      </c>
-      <c r="H5" t="n">
-        <v>91987.32594871662</v>
-      </c>
-      <c r="I5" t="n">
-        <v>91987.32594871662</v>
-      </c>
-      <c r="J5" t="n">
-        <v>91987.32594871675</v>
-      </c>
-      <c r="K5" t="n">
-        <v>91987.32594871667</v>
       </c>
       <c r="L5" t="n">
         <v>91987.32594871662</v>
@@ -26508,10 +26508,10 @@
         <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26524,46 +26524,46 @@
         <v>-343024.5379699051</v>
       </c>
       <c r="C6" t="n">
-        <v>246943.3412446397</v>
+        <v>246943.3412446399</v>
       </c>
       <c r="D6" t="n">
-        <v>246943.3412446397</v>
+        <v>246943.3412446398</v>
       </c>
       <c r="E6" t="n">
-        <v>-164793.5212712106</v>
+        <v>-165768.1125309325</v>
       </c>
       <c r="F6" t="n">
-        <v>360366.5152056855</v>
+        <v>359391.9239459636</v>
       </c>
       <c r="G6" t="n">
-        <v>360366.5152056855</v>
+        <v>359391.9239459637</v>
       </c>
       <c r="H6" t="n">
-        <v>360366.5152056853</v>
+        <v>359391.9239459637</v>
       </c>
       <c r="I6" t="n">
-        <v>360366.5152056853</v>
+        <v>359391.9239459636</v>
       </c>
       <c r="J6" t="n">
-        <v>183943.296013091</v>
+        <v>182968.704753371</v>
       </c>
       <c r="K6" t="n">
-        <v>360366.5152056854</v>
+        <v>359391.9239459637</v>
       </c>
       <c r="L6" t="n">
-        <v>360366.5152056863</v>
+        <v>359391.9239459637</v>
       </c>
       <c r="M6" t="n">
-        <v>225565.4999718483</v>
+        <v>224590.9087121267</v>
       </c>
       <c r="N6" t="n">
-        <v>360366.5152056855</v>
+        <v>359391.9239459636</v>
       </c>
       <c r="O6" t="n">
-        <v>360366.5152056854</v>
+        <v>359391.9239459636</v>
       </c>
       <c r="P6" t="n">
-        <v>360366.5152056844</v>
+        <v>359391.9239459636</v>
       </c>
     </row>
   </sheetData>
@@ -26737,34 +26737,34 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170868</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170868</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="F3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="G3" t="n">
+        <v>830.3824054541004</v>
+      </c>
+      <c r="H3" t="n">
+        <v>830.3824054541004</v>
+      </c>
+      <c r="I3" t="n">
+        <v>830.3824054541004</v>
+      </c>
+      <c r="J3" t="n">
         <v>830.3824054541002</v>
       </c>
-      <c r="F3" t="n">
+      <c r="K3" t="n">
         <v>830.3824054541002</v>
-      </c>
-      <c r="G3" t="n">
-        <v>830.3824054541002</v>
-      </c>
-      <c r="H3" t="n">
-        <v>830.3824054541002</v>
-      </c>
-      <c r="I3" t="n">
-        <v>830.3824054541002</v>
-      </c>
-      <c r="J3" t="n">
-        <v>830.3824054541017</v>
-      </c>
-      <c r="K3" t="n">
-        <v>830.3824054541017</v>
       </c>
       <c r="L3" t="n">
         <v>830.3824054541002</v>
@@ -26779,7 +26779,7 @@
         <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541018</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26795,7 +26795,7 @@
         <v>674.2872727545557</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26813,7 +26813,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="J4" t="n">
-        <v>1215.213643253575</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="K4" t="n">
         <v>1215.213643253573</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370134</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26983,13 +26983,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>1.477928890381008e-12</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>-3.041335612225048e-13</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.591615728102624e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545574</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,19 +27384,19 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>82.02264908530589</v>
       </c>
       <c r="H2" t="n">
-        <v>102.3771892706852</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27429,22 +27429,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27539,16 +27539,16 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>18.87113914803671</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,16 +27581,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>30.33030577335839</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27615,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>272.7773237853505</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27627,16 +27627,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>98.95375469339388</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,10 +27666,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -27684,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27776,16 +27776,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>86.74656227310814</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27830,7 +27830,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27839,10 +27839,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>63.13204062090054</v>
       </c>
     </row>
     <row r="8">
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>138.3069574329619</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>262.6575104070072</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448612</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,28 +27900,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853698</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491428</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28070,10 +28070,10 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>52.0259221965172</v>
+        <v>202.6983327287247</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28854,7 +28854,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>-1.051603248924948e-12</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -28997,7 +28997,7 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>3.487817442267745e-12</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -29340,7 +29340,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>-6.707523425575346e-12</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31284,43 +31284,43 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554469</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633801</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473556</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141113</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188917</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N6" t="n">
-        <v>211.3190711736701</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034984</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619155</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644445</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302242</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,25 +31460,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175848</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383803</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678011</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31521,43 +31521,43 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554469</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633801</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473556</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141113</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188917</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736701</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034984</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619155</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644445</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302242</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,25 +31697,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175848</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383803</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678011</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31770,7 +31770,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31779,7 +31779,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31788,7 +31788,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31831,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31840,7 +31840,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31849,10 +31849,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31867,10 +31867,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31931,7 +31931,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31943,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32007,7 +32007,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32016,7 +32016,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32025,7 +32025,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32068,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32077,7 +32077,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32086,10 +32086,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32104,10 +32104,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32168,7 +32168,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32180,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32305,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32390,7 +32390,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32402,10 +32402,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32414,19 +32414,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,46 +32542,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32627,7 +32627,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32639,10 +32639,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32651,19 +32651,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,43 +32700,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,46 +32779,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32864,7 +32864,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32876,10 +32876,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32888,19 +32888,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443622</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444951</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176654</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961209</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041495</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304449</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565528</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927196</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540896</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130947001</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647502</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
-        <v>209.6945076446481</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104662</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
-        <v>14.61306122562946</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354898</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354106</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
-        <v>17.25001940386728</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127075</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215737</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622987</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358991</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724854</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.536285481347</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855533</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458555</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.994806871096</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
-        <v>110.895220109512</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.1761272367747</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361502</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1175069441680333</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.497410895081167</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H28" t="n">
-        <v>13.31334413990347</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298637</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J28" t="n">
-        <v>105.8669502822385</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K28" t="n">
-        <v>173.9719203557937</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L28" t="n">
-        <v>222.6241616196128</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171323</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263754</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065636</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P28" t="n">
-        <v>181.1050413469076</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235693</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337681</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
-        <v>26.09578805336905</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892256</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351828</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443622</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444951</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176654</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961209</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041495</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304449</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565528</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927196</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540896</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130947001</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647502</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
-        <v>209.6945076446481</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104662</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
-        <v>14.61306122562946</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354898</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354106</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
-        <v>17.25001940386728</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127075</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215737</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622987</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358991</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724854</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.536285481347</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855533</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458555</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.994806871096</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R30" t="n">
-        <v>110.895220109512</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.1761272367747</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361502</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1175069441680333</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.497410895081167</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H31" t="n">
-        <v>13.31334413990347</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298637</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J31" t="n">
-        <v>105.8669502822385</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K31" t="n">
-        <v>173.9719203557937</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L31" t="n">
-        <v>222.6241616196128</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171323</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263754</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065636</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P31" t="n">
-        <v>181.1050413469076</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235693</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337681</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
-        <v>26.09578805336905</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892256</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351828</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443623</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444951</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176654</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961209</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041496</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L44" t="n">
-        <v>526.7962671304449</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565529</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927197</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540896</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130947001</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647503</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
-        <v>209.6945076446482</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104662</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
-        <v>14.61306122562947</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U44" t="n">
-        <v>0.2670576580354898</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354106</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
-        <v>17.25001940386729</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127076</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215737</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622987</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358992</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724854</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.536285481347</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855534</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458555</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.994806871096</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R45" t="n">
-        <v>110.895220109512</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.1761272367747</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361503</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1175069441680333</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.497410895081167</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H46" t="n">
-        <v>13.31334413990348</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.03122946298638</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J46" t="n">
-        <v>105.8669502822385</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K46" t="n">
-        <v>173.9719203557937</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L46" t="n">
-        <v>222.6241616196128</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.7259642171323</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263755</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
-        <v>211.6522236065636</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P46" t="n">
-        <v>181.1050413469076</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235694</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337683</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
-        <v>26.09578805336906</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892257</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.0816769579135183</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,13 +34789,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>296.2227415328935</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770695</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535621</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713957</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35108,10 +35108,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O7" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873152</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770695</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355125</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>220.2054057751875</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713957</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35345,10 +35345,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873152</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35412,13 +35412,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35433,7 +35433,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875336993</v>
       </c>
       <c r="M12" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35582,13 +35582,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35649,13 +35649,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35670,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>378.4011515192551</v>
       </c>
       <c r="P15" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>161.661626167781</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35819,13 +35819,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35886,28 +35886,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35965,22 +35965,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N18" t="n">
-        <v>567.6062243483298</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M19" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,28 +36123,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,25 +36199,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>137.9476282330529</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>355.8957474878089</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206064</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,28 +36360,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M24" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.0130327850741</v>
+        <v>268.0367344586608</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415084</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303338</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109081</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221126</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081129</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951482</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109132</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502054</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349844</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,31 +36673,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953158</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005183</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>249.257704956025</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504671</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980136</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411089</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>484.7652115523267</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209236</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686883</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556572</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299109</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799289</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789729</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.276877805604</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206032</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118011</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187496</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415084</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303338</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109081</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221126</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081129</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951482</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109132</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502054</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349123</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953158</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005183</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>249.257704956025</v>
+        <v>537.6668875337</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504671</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980136</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411089</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>495.502597509196</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209236</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556572</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299109</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799289</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M31" t="n">
-        <v>274.3098411789729</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
-        <v>273.276877805604</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206032</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118011</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187496</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37317,7 +37317,7 @@
         <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081124</v>
       </c>
       <c r="O35" t="n">
         <v>713.1546070951472</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37542,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K38" t="n">
         <v>528.689756130333</v>
@@ -37621,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
         <v>415.0406756005178</v>
@@ -37633,16 +37633,16 @@
         <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q39" t="n">
-        <v>233.2481640954534</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37791,7 +37791,7 @@
         <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081133</v>
       </c>
       <c r="O41" t="n">
         <v>713.1546070951472</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415084</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303338</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109081</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
         <v>805.3296502221127</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081056</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951482</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109132</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502055</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349847</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.910178954907</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879397</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>249.257704956025</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504671</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980137</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>642.8663885318293</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714625</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209236</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556573</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299109</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799289</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M46" t="n">
-        <v>274.3098411789729</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N46" t="n">
-        <v>273.276877805604</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206033</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118011</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187497</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_5_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_5_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1665357.070127643</v>
+        <v>1670296.332976675</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800619</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -673,7 +673,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>331.7615209354891</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -709,7 +709,7 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>143.1520950062519</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -721,7 +721,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -816,31 +816,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>26.32882004050029</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>197.5924697752169</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>307.9222910483176</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>323.1973192220558</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -992,10 +992,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H6" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1056,13 +1056,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1107,10 +1107,10 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>205.1478855987999</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1119,10 +1119,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>155.4526127311943</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1150,7 +1150,7 @@
         <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>61.26526235735</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>6.283679164004356</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1192,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1229,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1347,19 +1347,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>83.82466560786631</v>
+        <v>223.1498336210774</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274137</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,19 +1527,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>118.4898845065125</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1587,16 +1587,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>212.4576348641828</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1660,7 +1660,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338503</v>
       </c>
       <c r="U14" t="n">
         <v>251.078595249801</v>
@@ -1764,22 +1764,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>118.4898845065121</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1818,22 +1818,22 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>273.6349132379646</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1846,7 +1846,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2058,7 +2058,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>203.8435192151922</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2134,7 +2134,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
-        <v>208.482788338503</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
         <v>251.078595249801</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,19 +2238,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2289,25 +2289,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>155.8385935972342</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>115.5269768002183</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>115.526976800218</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2563,19 +2563,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722625</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2763,10 +2763,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>115.5269768002178</v>
+        <v>118.4898845065123</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2961,7 +2961,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>115.5269768002183</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
@@ -3015,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>195.8155841663235</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3240,10 +3240,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>139.1537278750038</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274137</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
         <v>251.078595249801</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3441,7 +3441,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>281.3698338194063</v>
+        <v>282.7918872766241</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3511,7 +3511,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722631</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
@@ -3720,16 +3720,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>66.90445977359191</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3915,7 +3915,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>197.9208099836032</v>
@@ -3954,19 +3954,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>136.5752847581504</v>
+        <v>237.3965091869248</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>115.5269768002176</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>33.35146980185879</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1662.48357412947</v>
+        <v>1341.294330781294</v>
       </c>
       <c r="C2" t="n">
-        <v>1293.521057189058</v>
+        <v>972.331813840882</v>
       </c>
       <c r="D2" t="n">
-        <v>935.2553585823075</v>
+        <v>614.0661152341315</v>
       </c>
       <c r="E2" t="n">
-        <v>549.4671059840632</v>
+        <v>228.2778626358873</v>
       </c>
       <c r="F2" t="n">
-        <v>542.5216052348597</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G2" t="n">
         <v>207.4089578252748</v>
@@ -4327,22 +4327,22 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2497.522325784824</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2278.887658756887</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2025.125873394978</v>
       </c>
       <c r="V2" t="n">
-        <v>1662.48357412947</v>
+        <v>1694.062986051408</v>
       </c>
       <c r="W2" t="n">
-        <v>1662.48357412947</v>
+        <v>1341.294330781294</v>
       </c>
       <c r="X2" t="n">
-        <v>1662.48357412947</v>
+        <v>1341.294330781294</v>
       </c>
       <c r="Y2" t="n">
-        <v>1662.48357412947</v>
+        <v>1341.294330781294</v>
       </c>
     </row>
     <row r="3">
@@ -4385,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>546.4805193761945</v>
+        <v>528.5406308981343</v>
       </c>
       <c r="C4" t="n">
-        <v>377.5443364482876</v>
+        <v>359.6044479702274</v>
       </c>
       <c r="D4" t="n">
-        <v>227.4276970359519</v>
+        <v>359.6044479702274</v>
       </c>
       <c r="E4" t="n">
-        <v>227.4276970359519</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="F4" t="n">
-        <v>80.53774953804151</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="G4" t="n">
-        <v>80.53774953804151</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H4" t="n">
-        <v>80.53774953804151</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I4" t="n">
-        <v>80.53774953804151</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
@@ -4527,13 +4527,13 @@
         <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>528.5406308981343</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>528.5406308981343</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064342</v>
+        <v>528.5406308981343</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1491.915471247703</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="C5" t="n">
-        <v>1122.952954307291</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="D5" t="n">
-        <v>764.6872557005406</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E5" t="n">
-        <v>378.8990031022964</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177355</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036446</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4582,7 +4582,7 @@
         <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P5" t="n">
         <v>2544.691559791253</v>
@@ -4594,25 +4594,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="X5" t="n">
-        <v>2268.654643287636</v>
+        <v>2139.480975254749</v>
       </c>
       <c r="Y5" t="n">
-        <v>1878.515311311824</v>
+        <v>1749.341643278937</v>
       </c>
     </row>
     <row r="6">
@@ -4637,7 +4637,7 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4649,10 +4649,10 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>384.4474646615929</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>789.0633827572649</v>
       </c>
       <c r="M6" t="n">
         <v>1313.210296315296</v>
@@ -4701,13 +4701,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036446</v>
+        <v>520.9088977430002</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036446</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036446</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E7" t="n">
         <v>53.94298182036446</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N7" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064343</v>
+        <v>520.9088977430002</v>
       </c>
       <c r="U7" t="n">
-        <v>438.9553738610023</v>
+        <v>520.9088977430002</v>
       </c>
       <c r="V7" t="n">
-        <v>438.9553738610023</v>
+        <v>520.9088977430002</v>
       </c>
       <c r="W7" t="n">
-        <v>438.9553738610023</v>
+        <v>520.9088977430002</v>
       </c>
       <c r="X7" t="n">
-        <v>210.9658229629849</v>
+        <v>520.9088977430002</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036446</v>
+        <v>520.9088977430002</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1249.712458167646</v>
+        <v>1187.828354776384</v>
       </c>
       <c r="C8" t="n">
-        <v>880.7499412272343</v>
+        <v>818.8658378359718</v>
       </c>
       <c r="D8" t="n">
-        <v>522.4842426204839</v>
+        <v>460.6001392292213</v>
       </c>
       <c r="E8" t="n">
-        <v>136.6959900222396</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F8" t="n">
-        <v>129.7504892730362</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>115.8270852116271</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.961649073313</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.282427122408</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2690.801940347511</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2690.801940347511</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2690.801940347511</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2690.801940347511</v>
       </c>
       <c r="V8" t="n">
-        <v>2366.086203674652</v>
+        <v>2690.801940347511</v>
       </c>
       <c r="W8" t="n">
-        <v>2013.317548404538</v>
+        <v>2338.033285077397</v>
       </c>
       <c r="X8" t="n">
-        <v>1639.851790143458</v>
+        <v>1964.567526816317</v>
       </c>
       <c r="Y8" t="n">
-        <v>1249.712458167646</v>
+        <v>1574.428194840505</v>
       </c>
     </row>
     <row r="9">
@@ -4874,31 +4874,31 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>713.806220357135</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="U10" t="n">
-        <v>438.9553738610022</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="V10" t="n">
-        <v>184.2708856551153</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="W10" t="n">
-        <v>99.59950625323012</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="X10" t="n">
-        <v>99.59950625323012</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="11">
@@ -5017,34 +5017,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822469</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795207</v>
@@ -5056,37 +5056,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5117,25 +5117,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L12" t="n">
-        <v>1206.718781115523</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M12" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N12" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O12" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P12" t="n">
         <v>2328.464088060424</v>
@@ -5175,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>413.0432218861031</v>
+        <v>216.9038434870662</v>
       </c>
       <c r="C13" t="n">
-        <v>244.1070389581962</v>
+        <v>216.9038434870662</v>
       </c>
       <c r="D13" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E13" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K13" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5217,34 +5217,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U13" t="n">
-        <v>1098.712528333286</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V13" t="n">
-        <v>1098.712528333286</v>
+        <v>955.1031435655742</v>
       </c>
       <c r="W13" t="n">
-        <v>809.2953582963255</v>
+        <v>665.6859735286137</v>
       </c>
       <c r="X13" t="n">
-        <v>809.2953582963255</v>
+        <v>437.6964226305963</v>
       </c>
       <c r="Y13" t="n">
-        <v>594.6916867163428</v>
+        <v>216.9038434870662</v>
       </c>
     </row>
     <row r="14">
@@ -5254,34 +5254,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5293,37 +5293,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5354,25 +5354,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>796.3635653766202</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>1103.683698656582</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N15" t="n">
-        <v>1433.546326320615</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
         <v>2328.464088060424</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>216.9038434870658</v>
+        <v>562.3990000507114</v>
       </c>
       <c r="C16" t="n">
-        <v>216.9038434870658</v>
+        <v>562.3990000507114</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028584</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5442,10 +5442,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5466,22 +5466,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U16" t="n">
-        <v>1209.787631771461</v>
+        <v>998.731953086838</v>
       </c>
       <c r="V16" t="n">
-        <v>955.1031435655738</v>
+        <v>744.0474648809511</v>
       </c>
       <c r="W16" t="n">
-        <v>665.6859735286132</v>
+        <v>744.0474648809511</v>
       </c>
       <c r="X16" t="n">
-        <v>437.6964226305959</v>
+        <v>744.0474648809511</v>
       </c>
       <c r="Y16" t="n">
-        <v>216.9038434870658</v>
+        <v>744.0474648809511</v>
       </c>
     </row>
     <row r="17">
@@ -5491,34 +5491,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H17" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795207</v>
@@ -5530,37 +5530,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5591,25 +5591,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636251</v>
+        <v>1206.718781115523</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643587</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.37645130762</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526317</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P18" t="n">
         <v>2328.464088060424</v>
@@ -5649,40 +5649,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5691,34 +5691,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.210845262961</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>1075.210845262961</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V19" t="n">
-        <v>820.5263570570741</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W19" t="n">
-        <v>531.1091870201135</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X19" t="n">
-        <v>303.1196361220962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5728,37 +5728,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
@@ -5767,19 +5767,19 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
@@ -5788,16 +5788,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5828,25 +5828,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>233.7852434110083</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>644.675512255521</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>891.4406401619851</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
         <v>2328.464088060424</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>711.072954880832</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>542.1367719529251</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980067</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.08282758575</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557906</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557906</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557906</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1498.916270557906</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U22" t="n">
-        <v>1498.916270557906</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V22" t="n">
-        <v>1498.916270557906</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W22" t="n">
-        <v>1341.503549752619</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>1113.513998854602</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y22" t="n">
-        <v>892.7214197110717</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5980,22 +5980,22 @@
         <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805468</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
@@ -6056,19 +6056,19 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
         <v>674.428562457161</v>
@@ -6086,7 +6086,7 @@
         <v>1837.916516526317</v>
       </c>
       <c r="P24" t="n">
-        <v>2358.217138262064</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6123,31 +6123,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
         <v>259.7851881688072</v>
@@ -6174,25 +6174,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557903</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T25" t="n">
-        <v>1275.130855347409</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U25" t="n">
-        <v>986.0022165609669</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V25" t="n">
-        <v>731.31772835508</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W25" t="n">
-        <v>441.9005583181194</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>213.9110074201021</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
         <v>488.193237080547</v>
@@ -6223,13 +6223,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6241,37 +6241,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6302,25 +6302,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571611</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636253</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P27" t="n">
         <v>2328.464088060424</v>
@@ -6360,40 +6360,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6402,34 +6402,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S28" t="n">
-        <v>1382.222354598086</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="T28" t="n">
-        <v>1158.436939387592</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U28" t="n">
-        <v>869.3083006011506</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V28" t="n">
-        <v>614.6238123952637</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W28" t="n">
-        <v>325.2066423583032</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028584</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="29">
@@ -6442,70 +6442,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
         <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6530,31 +6530,31 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I30" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L30" t="n">
-        <v>1206.718781115524</v>
+        <v>1206.718781115523</v>
       </c>
       <c r="M30" t="n">
-        <v>1514.038914395485</v>
+        <v>1514.038914395484</v>
       </c>
       <c r="N30" t="n">
-        <v>1843.901542059518</v>
+        <v>1843.901542059517</v>
       </c>
       <c r="O30" t="n">
         <v>2123.441607278215</v>
@@ -6597,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
         <v>97.21709146028584</v>
@@ -6624,13 +6624,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6639,34 +6639,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S31" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T31" t="n">
-        <v>1275.130855347408</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U31" t="n">
-        <v>986.0022165609664</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V31" t="n">
-        <v>731.3177283550796</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W31" t="n">
-        <v>441.900558318119</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y31" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6679,31 +6679,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155887</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6718,10 +6718,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014292</v>
@@ -6733,16 +6733,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6788,7 +6788,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
         <v>1558.376451307619</v>
@@ -6888,7 +6888,7 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U34" t="n">
         <v>869.3083006011506</v>
@@ -6916,31 +6916,31 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D35" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822469</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -6949,7 +6949,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
@@ -6958,25 +6958,25 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V35" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X35" t="n">
         <v>3205.060556590537</v>
@@ -7013,7 +7013,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
         <v>263.5382936126482</v>
@@ -7025,7 +7025,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
         <v>1558.376451307619</v>
@@ -7034,10 +7034,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>542.1367719529251</v>
+        <v>692.5547804049818</v>
       </c>
       <c r="C37" t="n">
-        <v>542.1367719529251</v>
+        <v>692.5547804049818</v>
       </c>
       <c r="D37" t="n">
-        <v>392.0201325405893</v>
+        <v>542.438140992646</v>
       </c>
       <c r="E37" t="n">
-        <v>244.1070389581962</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7101,10 +7101,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7119,28 +7119,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S37" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T37" t="n">
-        <v>1275.130855347408</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U37" t="n">
-        <v>990.9189019944725</v>
+        <v>1102.192796133239</v>
       </c>
       <c r="V37" t="n">
-        <v>990.9189019944725</v>
+        <v>1102.192796133239</v>
       </c>
       <c r="W37" t="n">
-        <v>990.9189019944725</v>
+        <v>1102.192796133239</v>
       </c>
       <c r="X37" t="n">
-        <v>762.9293510964552</v>
+        <v>874.2032452352215</v>
       </c>
       <c r="Y37" t="n">
-        <v>542.1367719529251</v>
+        <v>874.2032452352215</v>
       </c>
     </row>
     <row r="38">
@@ -7150,31 +7150,31 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
         <v>889.2841917514085</v>
@@ -7183,43 +7183,43 @@
         <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7250,7 +7250,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
         <v>263.5382936126482</v>
@@ -7262,7 +7262,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
         <v>1558.376451307619</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7338,10 +7338,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7356,28 +7356,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S40" t="n">
-        <v>1382.222354598086</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T40" t="n">
-        <v>1158.436939387592</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U40" t="n">
-        <v>869.3083006011506</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V40" t="n">
-        <v>614.6238123952637</v>
+        <v>607.4268406407766</v>
       </c>
       <c r="W40" t="n">
-        <v>325.2066423583032</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="X40" t="n">
-        <v>97.21709146028584</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="41">
@@ -7390,28 +7390,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
         <v>889.2841917514083</v>
@@ -7423,19 +7423,19 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7444,16 +7444,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7487,7 +7487,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
         <v>263.5382936126482</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7593,28 +7593,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>964.1357418247858</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U43" t="n">
-        <v>675.007103038344</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V43" t="n">
-        <v>537.0522699493032</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W43" t="n">
-        <v>247.6350999123426</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X43" t="n">
-        <v>247.6350999123426</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y43" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="44">
@@ -7627,25 +7627,25 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
         <v>365.8813331823787</v>
@@ -7657,22 +7657,22 @@
         <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7681,16 +7681,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7724,7 +7724,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
         <v>263.5382936126482</v>
@@ -7736,7 +7736,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
         <v>1558.376451307619</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7830,28 +7830,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S46" t="n">
-        <v>1382.222354598087</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T46" t="n">
-        <v>1158.436939387592</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U46" t="n">
-        <v>869.3083006011507</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V46" t="n">
-        <v>614.6238123952638</v>
+        <v>420.3226148324574</v>
       </c>
       <c r="W46" t="n">
-        <v>325.2066423583032</v>
+        <v>130.9054447954967</v>
       </c>
       <c r="X46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8075,10 +8075,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>199.0269485415596</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747166</v>
+        <v>90.64146763747117</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270189</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8543,13 +8543,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>435.9238900028829</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>199.02694854156</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8774,7 +8774,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>288.409182577675</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8786,13 +8786,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8929,7 +8929,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711646</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
         <v>417.6612145504504</v>
@@ -9005,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9020,10 +9020,10 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>96.03744927814694</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
@@ -9187,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9248,7 +9248,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>288.409182577675</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776749</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298197</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9479,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>96.0374492781462</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9734,10 +9734,10 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q24" t="n">
-        <v>180.0237016735866</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>34.78428385445216</v>
@@ -9883,7 +9883,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928327</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776744</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10129,7 +10129,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714807</v>
       </c>
       <c r="Q29" t="n">
         <v>212.3149906599047</v>
@@ -10196,7 +10196,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>288.4091825776757</v>
+        <v>288.4091825776743</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10214,7 +10214,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10372,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10597,7 +10597,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
-        <v>437.3469244119847</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
         <v>380.8001812627454</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.096615172074</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10831,7 +10831,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928333</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11071,7 +11071,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119856</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
         <v>380.8001812627454</v>
@@ -11305,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928336</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23415,19 +23415,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>30.12558851169983</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
@@ -23475,16 +23475,16 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>6.127018487911954</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23652,22 +23652,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>30.12558851170024</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
@@ -23706,22 +23706,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>12.60243916061279</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23946,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>14.74113413690262</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24126,19 +24126,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
@@ -24177,25 +24177,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>130.6844047393568</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24414,7 +24414,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>82.393833183385</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>103.0576765518768</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24651,10 +24651,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>82.39383318338545</v>
+        <v>79.43092547709092</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24849,7 +24849,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>166.4935684633776</v>
@@ -24888,7 +24888,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>82.393833183385</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>29.89407122271365</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25128,10 +25128,10 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>82.39383318338548</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25329,7 +25329,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>110.419245464272</v>
@@ -25359,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>4.867518579171076</v>
+        <v>3.445465121953248</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25608,16 +25608,16 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>185.2331835502361</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25803,7 +25803,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
         <v>110.419245464272</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25842,19 +25842,19 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>115.5623585656776</v>
+        <v>14.74113413690318</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>82.39383318338567</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>192.3581855871784</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>915460.0742370033</v>
+        <v>915460.0742370035</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>915460.0742370035</v>
+        <v>915460.0742370033</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>915460.0742370035</v>
+        <v>915460.0742370033</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>915460.0742370035</v>
+        <v>915460.0742370033</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>915460.0742370033</v>
+        <v>915460.0742370032</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>915460.0742370035</v>
+        <v>915460.0742370033</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>915460.0742370032</v>
+        <v>915460.0742370033</v>
       </c>
     </row>
     <row r="16">
@@ -26313,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>513151.1061651767</v>
+        <v>513151.106165177</v>
       </c>
       <c r="C2" t="n">
-        <v>513151.1061651773</v>
+        <v>513151.1061651772</v>
       </c>
       <c r="D2" t="n">
         <v>513151.1061651772</v>
@@ -26325,7 +26325,7 @@
         <v>488786.3246721359</v>
       </c>
       <c r="F2" t="n">
-        <v>488786.3246721358</v>
+        <v>488786.324672136</v>
       </c>
       <c r="G2" t="n">
         <v>488786.3246721359</v>
@@ -26334,19 +26334,19 @@
         <v>488786.3246721359</v>
       </c>
       <c r="I2" t="n">
-        <v>488786.3246721359</v>
+        <v>488786.3246721358</v>
       </c>
       <c r="J2" t="n">
         <v>488786.3246721359</v>
       </c>
       <c r="K2" t="n">
-        <v>488786.3246721359</v>
+        <v>488786.3246721358</v>
       </c>
       <c r="L2" t="n">
         <v>488786.3246721359</v>
       </c>
       <c r="M2" t="n">
-        <v>488786.324672136</v>
+        <v>488786.3246721359</v>
       </c>
       <c r="N2" t="n">
         <v>488786.3246721359</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925927</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26423,7 +26423,7 @@
         <v>183348.6868571279</v>
       </c>
       <c r="D4" t="n">
-        <v>183348.686857128</v>
+        <v>183348.6868571279</v>
       </c>
       <c r="E4" t="n">
         <v>36432.48351773394</v>
@@ -26441,25 +26441,25 @@
         <v>36432.48351773394</v>
       </c>
       <c r="J4" t="n">
-        <v>36432.48351773396</v>
+        <v>36432.48351773394</v>
       </c>
       <c r="K4" t="n">
+        <v>36432.48351773392</v>
+      </c>
+      <c r="L4" t="n">
         <v>36432.48351773395</v>
       </c>
-      <c r="L4" t="n">
-        <v>36432.48351773396</v>
-      </c>
       <c r="M4" t="n">
-        <v>36432.48351773396</v>
+        <v>36432.48351773394</v>
       </c>
       <c r="N4" t="n">
-        <v>36432.48351773396</v>
+        <v>36432.4835177339</v>
       </c>
       <c r="O4" t="n">
-        <v>36432.48351773397</v>
+        <v>36432.48351773395</v>
       </c>
       <c r="P4" t="n">
-        <v>36432.48351773396</v>
+        <v>36432.48351773395</v>
       </c>
     </row>
     <row r="5">
@@ -26472,43 +26472,43 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="H5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="I5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="J5" t="n">
         <v>91987.32594871665</v>
       </c>
-      <c r="H5" t="n">
-        <v>91987.32594871665</v>
-      </c>
-      <c r="I5" t="n">
-        <v>91987.32594871665</v>
-      </c>
-      <c r="J5" t="n">
+      <c r="K5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="L5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="M5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="N5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="O5" t="n">
         <v>91987.32594871662</v>
-      </c>
-      <c r="K5" t="n">
-        <v>91987.32594871662</v>
-      </c>
-      <c r="L5" t="n">
-        <v>91987.32594871662</v>
-      </c>
-      <c r="M5" t="n">
-        <v>91987.32594871662</v>
-      </c>
-      <c r="N5" t="n">
-        <v>91987.32594871662</v>
-      </c>
-      <c r="O5" t="n">
-        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
         <v>91987.32594871664</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-343024.5379699051</v>
+        <v>-343024.537969905</v>
       </c>
       <c r="C6" t="n">
-        <v>246943.3412446399</v>
+        <v>246943.3412446398</v>
       </c>
       <c r="D6" t="n">
         <v>246943.3412446398</v>
       </c>
       <c r="E6" t="n">
-        <v>-165768.1125309325</v>
+        <v>-164890.980397183</v>
       </c>
       <c r="F6" t="n">
-        <v>359391.9239459636</v>
+        <v>360269.0560797132</v>
       </c>
       <c r="G6" t="n">
-        <v>359391.9239459637</v>
+        <v>360269.0560797132</v>
       </c>
       <c r="H6" t="n">
-        <v>359391.9239459637</v>
+        <v>360269.0560797132</v>
       </c>
       <c r="I6" t="n">
-        <v>359391.9239459636</v>
+        <v>360269.0560797131</v>
       </c>
       <c r="J6" t="n">
-        <v>182968.704753371</v>
+        <v>183845.8368871202</v>
       </c>
       <c r="K6" t="n">
-        <v>359391.9239459637</v>
+        <v>360269.0560797131</v>
       </c>
       <c r="L6" t="n">
-        <v>359391.9239459637</v>
+        <v>360269.0560797133</v>
       </c>
       <c r="M6" t="n">
-        <v>224590.9087121267</v>
+        <v>225468.0408458759</v>
       </c>
       <c r="N6" t="n">
-        <v>359391.9239459636</v>
+        <v>360269.0560797132</v>
       </c>
       <c r="O6" t="n">
-        <v>359391.9239459636</v>
+        <v>360269.0560797132</v>
       </c>
       <c r="P6" t="n">
-        <v>359391.9239459636</v>
+        <v>360269.0560797131</v>
       </c>
     </row>
   </sheetData>
@@ -26740,46 +26740,46 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541004</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545557</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990178</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27393,7 +27393,7 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>82.02264908530589</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>31.26361780271961</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27441,7 +27441,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27536,31 +27536,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>18.87113914803671</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27599,7 +27599,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>88.93052856137408</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>98.95375469339388</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27681,7 +27681,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>46.53378145641324</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27776,13 +27776,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,19 +27818,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>19.88721985928433</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27839,10 +27839,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>63.13204062090054</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27870,10 +27870,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>262.6575104070072</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>48.19472341080731</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27912,7 +27912,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28067,19 +28067,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>202.6983327287247</v>
+        <v>63.37316471551358</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28854,7 +28854,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>-1.051603248924948e-12</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -28997,7 +28997,7 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>3.487817442267745e-12</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -30231,7 +30231,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>-1.350599632132798e-12</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -31284,43 +31284,43 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P5" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N6" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,25 +31460,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31521,43 +31521,43 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P8" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,25 +31697,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31755,7 +31755,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I11" t="n">
         <v>128.6967545176652</v>
@@ -31764,31 +31764,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P11" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31837,31 +31837,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
@@ -31916,7 +31916,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31928,7 +31928,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N13" t="n">
         <v>229.1447054263751</v>
@@ -31940,19 +31940,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32229,7 +32229,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
         <v>128.6967545176652</v>
@@ -32238,31 +32238,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32311,31 +32311,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
@@ -32390,7 +32390,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32402,7 +32402,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
         <v>229.1447054263751</v>
@@ -32414,19 +32414,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32466,7 +32466,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176652</v>
@@ -32475,31 +32475,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32548,31 +32548,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
@@ -32627,7 +32627,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32639,7 +32639,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
         <v>229.1447054263751</v>
@@ -32651,19 +32651,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,46 +33016,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H28" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K28" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L28" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P28" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S28" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,46 +33253,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H31" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I31" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K31" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L31" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P31" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S31" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33429,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33438,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33447,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33499,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33508,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33526,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33590,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33602,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33666,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33675,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33684,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33736,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33745,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33763,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33827,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33839,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33903,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33912,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33921,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33973,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33982,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -34000,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34064,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34076,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34359,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34377,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34386,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34395,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34447,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34456,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34474,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34538,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34550,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34795,10 +34795,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P5" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535667</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35108,10 +35108,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O7" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P8" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>515.9012490932197</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>220.2054057751875</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35345,10 +35345,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35415,25 +35415,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35491,13 +35491,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L12" t="n">
-        <v>537.6668875336993</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N12" t="n">
         <v>333.1945733980129</v>
@@ -35506,7 +35506,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q12" t="n">
         <v>298.0903205209232</v>
@@ -35567,19 +35567,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M13" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O13" t="n">
         <v>236.2373515206029</v>
@@ -35588,7 +35588,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35649,7 +35649,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
@@ -35725,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
         <v>415.0406756005178</v>
@@ -35740,10 +35740,10 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>378.4011515192551</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
@@ -35889,25 +35889,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35965,13 +35965,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560244</v>
+        <v>537.6668875336993</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
         <v>333.1945733980129</v>
@@ -35980,7 +35980,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975091996</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
@@ -36041,19 +36041,19 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
         <v>236.2373515206029</v>
@@ -36062,7 +36062,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K20" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,16 +36199,16 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>137.9476282330529</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
         <v>333.1945733980129</v>
@@ -36217,7 +36217,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714619</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206064</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
         <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36454,10 +36454,10 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714619</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q24" t="n">
-        <v>268.0367344586608</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M26" t="n">
         <v>805.3296502221118</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109105</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L30" t="n">
-        <v>537.6668875337</v>
+        <v>537.6668875336987</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M31" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,13 +37071,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37156,16 +37156,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37241,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,16 +37308,16 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081124</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
         <v>713.1546070951472</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37393,22 +37393,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37478,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,16 +37542,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221125</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37630,16 +37630,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37715,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37791,7 +37791,7 @@
         <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081133</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
         <v>713.1546070951472</v>
@@ -38019,13 +38019,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221127</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38104,16 +38104,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38189,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
